--- a/dumps/Stocks/Va Tech Wabag Ltd.xlsx
+++ b/dumps/Stocks/Va Tech Wabag Ltd.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -485,6 +486,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +794,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1053"/>
+  <dimension ref="A1:AP1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1143,43 +1145,44 @@
       <c r="AP4" s="69" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="101" t="n">
-        <v>46050</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="102" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1075.5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3249.4</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1402.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2819.52</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>19.65</v>
+      <c r="I5" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="101" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1192,13 +1195,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1052.3</v>
+        <v>1075.5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7418.29</v>
+        <v>3249.4</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1206,15 +1209,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>7.35</v>
+        <v>3.25</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>44.84</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="101" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1227,13 +1230,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1195</v>
+        <v>1052.3</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3610.41</v>
+        <v>7418.29</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1241,15 +1244,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.59</v>
+        <v>7.35</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>21.82</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="101" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1262,13 +1265,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1188.1</v>
+        <v>1195</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5982.6</v>
+        <v>3610.41</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1276,15 +1279,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>5.95</v>
+        <v>3.59</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>36.15</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="101" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1297,13 +1300,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1291.6</v>
+        <v>1188.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3902.25</v>
+        <v>5982.6</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1311,19 +1314,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>23.59</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="101" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1335,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1294.6</v>
+        <v>1291.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3911.38</v>
+        <v>3902.25</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1349,12 +1352,12 @@
         <v>3.86</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.72</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="101" t="n">
-        <v>46020</v>
+        <v>46024</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1367,13 +1370,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1276.55</v>
+        <v>1294.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5142.49</v>
+        <v>3911.38</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1381,19 +1384,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>5.13</v>
+        <v>3.86</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>31.16</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="101" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1402,13 +1405,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1286.8</v>
+        <v>1276.55</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3887.74</v>
+        <v>5142.49</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1416,15 +1419,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.84</v>
+        <v>5.13</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>23.5</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="101" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1437,13 +1440,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1307</v>
+        <v>1286.8</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1316.26</v>
+        <v>3887.74</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1451,10 +1454,10 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.3</v>
+        <v>3.84</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>7.96</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="14">
@@ -1472,13 +1475,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1307</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2632.53</v>
+        <v>1316.26</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1486,19 +1489,19 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="101" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1507,13 +1510,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1282.1</v>
+        <v>1307</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3873.58</v>
+        <v>2632.53</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1521,10 +1524,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.86</v>
+        <v>2.6</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>23.42</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="16">
@@ -1542,13 +1545,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1282.15</v>
+        <v>1282.1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1291.24</v>
+        <v>3873.58</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1556,19 +1559,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.28</v>
+        <v>3.86</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>7.81</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="101" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1577,13 +1580,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1303.1</v>
+        <v>1282.15</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6561.71</v>
+        <v>1291.24</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1591,19 +1594,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>6.5</v>
+        <v>1.28</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>39.71</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="101" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1615,10 +1618,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1264.75</v>
+        <v>1303.1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6368.6</v>
+        <v>6561.71</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1626,19 +1629,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>6.34</v>
+        <v>6.5</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>38.51</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="101" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1647,13 +1650,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1309.7</v>
+        <v>1264.75</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1318.98</v>
+        <v>6368.6</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1661,10 +1664,10 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.31</v>
+        <v>6.34</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>7.97</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="20">
@@ -1682,13 +1685,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1309.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2637.97</v>
+        <v>1318.98</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1696,19 +1699,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2.61</v>
+        <v>1.31</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>15.96</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="101" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1717,13 +1720,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1376.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4159.68</v>
+        <v>2637.97</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1731,19 +1734,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>4.11</v>
+        <v>2.61</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>25.17</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="101" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1755,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1376.3</v>
+        <v>1376.8</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4158.17</v>
+        <v>4159.68</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1766,15 +1769,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>25.11</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="101" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1787,13 +1790,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1369.8</v>
+        <v>1376.3</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2759.04</v>
+        <v>4158.17</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1801,10 +1804,10 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.74</v>
+        <v>4.16</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>16.7</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="24">
@@ -1822,13 +1825,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1369.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1379.52</v>
+        <v>2759.04</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1836,19 +1839,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>8.35</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="101" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1857,13 +1860,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1433.55</v>
+        <v>1369.8</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2887.45</v>
+        <v>1379.52</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1871,15 +1874,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.85</v>
+        <v>1.37</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>17.5</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="101" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1892,13 +1895,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1404.35</v>
+        <v>1433.55</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>4242.94</v>
+        <v>2887.45</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1906,19 +1909,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>4.22</v>
+        <v>2.85</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>25.67</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="101" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1927,13 +1930,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1413.5</v>
+        <v>1404.35</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2847.04</v>
+        <v>4242.94</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1941,15 +1944,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.84</v>
+        <v>4.22</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>17.2</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="101" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1965,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1404</v>
+        <v>1413.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2827.9</v>
+        <v>2847.04</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1976,15 +1979,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>17.08</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="101" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1997,13 +2000,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1407.3</v>
+        <v>1404</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1417.26</v>
+        <v>2827.9</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2011,10 +2014,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>8.56</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="30">
@@ -2054,11 +2057,11 @@
     </row>
     <row r="31">
       <c r="A31" s="101" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2067,13 +2070,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1409.5</v>
+        <v>1407.3</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>7097.51</v>
+        <v>1417.26</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2081,19 +2084,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>43.01</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="101" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2105,10 +2108,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1357.6</v>
+        <v>1409.5</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>6836.07</v>
+        <v>7097.51</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2116,15 +2119,15 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>41.32</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="101" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2137,13 +2140,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1351.8</v>
+        <v>1357.6</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2722.77</v>
+        <v>6836.07</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2151,15 +2154,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>2.7</v>
+        <v>6.75</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>16.47</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="101" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2175,10 +2178,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1416.8</v>
+        <v>1351.8</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2853.65</v>
+        <v>2722.77</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2186,19 +2189,19 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>17.23</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="101" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
@@ -2207,13 +2210,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1404.2</v>
+        <v>1416.8</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1414.14</v>
+        <v>2853.65</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2221,10 +2224,10 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>8.539999999999999</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="36">
@@ -2242,13 +2245,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1404.6</v>
+        <v>1404.2</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2829.11</v>
+        <v>1414.14</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2256,19 +2259,19 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>17.11</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="101" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -2277,13 +2280,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1402.8</v>
+        <v>1404.6</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1412.74</v>
+        <v>2829.11</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2291,10 +2294,10 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="38">
@@ -2315,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1402.7</v>
+        <v>1402.8</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1412.63</v>
+        <v>1412.74</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2329,16 +2332,16 @@
         <v>1.41</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>8.52</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="101" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -2347,13 +2350,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1419.85</v>
+        <v>1402.7</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>7149.61</v>
+        <v>1412.63</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2361,15 +2364,15 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>7.07</v>
+        <v>1.41</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>43.29</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="101" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
@@ -2385,10 +2388,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1403.05</v>
+        <v>1419.85</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>7065.05</v>
+        <v>7149.61</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2396,19 +2399,19 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>7.01</v>
+        <v>7.07</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>42.79</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="101" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -2417,13 +2420,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1402.9</v>
+        <v>1403.05</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>5651.36</v>
+        <v>7065.05</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2431,10 +2434,10 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>5.62</v>
+        <v>7.01</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>34.14</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="42">
@@ -2452,13 +2455,13 @@
         </is>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1402.8</v>
+        <v>1402.9</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1412.72</v>
+        <v>5651.36</v>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
@@ -2466,113 +2469,50 @@
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1.4</v>
+        <v>5.62</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>8.52</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B43" s="39" t="inlineStr">
+      <c r="A43" s="101" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C43" s="39" t="inlineStr">
+      <c r="C43" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D43" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="41" t="n">
-        <v>1413.01</v>
-      </c>
-      <c r="F43" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G43" s="39" t="inlineStr">
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1402.8</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1412.72</v>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H43" s="40" t="n"/>
-      <c r="I43" s="40" t="n"/>
-      <c r="J43" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K43" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L43" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M43" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N43" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O43" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P43" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q43" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R43" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S43" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T43" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U43" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V43" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W43" s="47" t="n"/>
-      <c r="X43" s="47" t="n"/>
-      <c r="Y43" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="47" t="n"/>
-      <c r="AA43" s="47" t="n"/>
-      <c r="AB43" s="48" t="n"/>
-      <c r="AC43" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD43" s="49" t="n"/>
+      <c r="H43" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B44" s="39" t="inlineStr">
         <is>
@@ -2588,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="41" t="n">
-        <v>1412.72</v>
+        <v>1413.01</v>
       </c>
       <c r="F44" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G44" s="39" t="inlineStr">
@@ -2606,75 +2546,75 @@
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45874</v>
+        <v>45947</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C45" s="39" t="inlineStr">
@@ -2683,99 +2623,96 @@
         </is>
       </c>
       <c r="D45" s="40" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" s="41" t="n">
-        <v>100</v>
+        <v>1412.72</v>
+      </c>
+      <c r="F45" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G45" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H45" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H45" s="40" t="n"/>
+      <c r="I45" s="40" t="n"/>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C46" s="39" t="inlineStr">
@@ -2784,88 +2721,88 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E46" s="41" t="n">
-        <v>1467.02</v>
-      </c>
       <c r="F46" s="41" t="n">
-        <v>5868.08</v>
+        <v>100</v>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
         </is>
       </c>
       <c r="H46" s="40" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="I46" s="40" t="n">
-        <v>35.46</v>
+        <v>0</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
@@ -2885,13 +2822,13 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>1467.12</v>
+        <v>1467.02</v>
       </c>
       <c r="F47" s="41" t="n">
-        <v>1467.12</v>
+        <v>5868.08</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
@@ -2899,175 +2836,175 @@
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>1.46</v>
+        <v>5.82</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>8.859999999999999</v>
+        <v>35.46</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B48" s="51" t="inlineStr">
+      <c r="A48" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B48" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C48" s="51" t="inlineStr">
+      <c r="C48" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D48" s="52" t="n">
+      <c r="D48" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F48" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G48" s="51" t="inlineStr">
+      <c r="E48" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="F48" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="G48" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I48" s="52" t="n">
-        <v>7.82</v>
+      <c r="H48" s="40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I48" s="40" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
@@ -3111,64 +3048,64 @@
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
@@ -3188,13 +3125,13 @@
         </is>
       </c>
       <c r="D50" s="52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="53" t="n">
         <v>1296.01</v>
       </c>
       <c r="F50" s="53" t="n">
-        <v>3888.03</v>
+        <v>1296.01</v>
       </c>
       <c r="G50" s="51" t="inlineStr">
         <is>
@@ -3202,81 +3139,81 @@
         </is>
       </c>
       <c r="H50" s="52" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I50" s="52" t="n">
-        <v>23.48</v>
+        <v>7.82</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="50" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B51" s="51" t="inlineStr">
         <is>
@@ -3289,13 +3226,13 @@
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="53" t="n">
-        <v>1437.12</v>
+        <v>1296.01</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>7185.59</v>
+        <v>3888.03</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3303,81 +3240,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>7.13</v>
+        <v>3.85</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>43.46</v>
+        <v>23.48</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3390,13 +3327,13 @@
         </is>
       </c>
       <c r="D52" s="52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="53" t="n">
-        <v>1362.48</v>
+        <v>1437.12</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>8174.89</v>
+        <v>7185.59</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3404,81 +3341,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>8.109999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>49.38</v>
+        <v>43.46</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3491,13 +3428,13 @@
         </is>
       </c>
       <c r="D53" s="52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E53" s="53" t="n">
-        <v>1383.59</v>
+        <v>1362.48</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>2767.17</v>
+        <v>8174.89</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3505,81 +3442,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>2.75</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>16.72</v>
+        <v>49.38</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -3595,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="E54" s="53" t="n">
-        <v>1398.44</v>
+        <v>1383.59</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>2796.88</v>
+        <v>2767.17</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -3606,81 +3543,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>16.91</v>
+        <v>16.72</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>45307</v>
+        <v>45694</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -3689,17 +3626,17 @@
       </c>
       <c r="C55" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D55" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" s="53" t="n">
-        <v>658.4</v>
+        <v>1398.44</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>3292</v>
+        <v>2796.88</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -3707,190 +3644,182 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>3.29</v>
+        <v>2.77</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>19.71</v>
+        <v>16.91</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="54" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B56" s="55" t="inlineStr">
+      <c r="A56" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B56" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C56" s="55" t="inlineStr">
+      <c r="C56" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D56" s="57" t="n">
+      <c r="D56" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E56" s="42" t="n">
-        <v>450.95</v>
-      </c>
-      <c r="F56" s="42" t="n">
-        <v>2270.75</v>
-      </c>
-      <c r="G56" s="57" t="inlineStr">
+      <c r="E56" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="F56" s="53" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G56" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H56" s="57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I56" s="57" t="n">
-        <v>13.73</v>
+      <c r="H56" s="52" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I56" s="52" t="n">
+        <v>19.71</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K56" s="47" t="n"/>
-      <c r="L56" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N56" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O56" s="58" t="n"/>
-      <c r="P56" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S56" s="58" t="n"/>
-      <c r="T56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V56" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W56" s="53" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="X56" s="50" t="n">
-        <v>45307</v>
-      </c>
+      <c r="K56" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L56" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M56" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N56" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O56" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P56" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R56" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S56" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T56" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U56" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V56" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W56" s="47" t="n"/>
+      <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z56" s="60">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA56" s="60">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB56" s="61">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z56" s="47" t="n"/>
+      <c r="AA56" s="47" t="n"/>
+      <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD56" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="54" t="n">
-        <v>44239</v>
+        <v>45225</v>
       </c>
       <c r="B57" s="55" t="inlineStr">
         <is>
@@ -3899,17 +3828,17 @@
       </c>
       <c r="C57" s="55" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D57" s="57" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E57" s="42" t="n">
-        <v>217.931</v>
+        <v>450.95</v>
       </c>
       <c r="F57" s="42" t="n">
-        <v>26336.62</v>
+        <v>2270.75</v>
       </c>
       <c r="G57" s="57" t="inlineStr">
         <is>
@@ -3917,10 +3846,10 @@
         </is>
       </c>
       <c r="H57" s="57" t="n">
-        <v>26.54</v>
+        <v>2.27</v>
       </c>
       <c r="I57" s="57" t="n">
-        <v>158.14</v>
+        <v>13.73</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
@@ -3928,54 +3857,67 @@
       </c>
       <c r="K57" s="47" t="n"/>
       <c r="L57" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N57" s="59">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O57" s="58" t="n"/>
       <c r="P57" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S57" s="58" t="n"/>
       <c r="T57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V57" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W57" s="47" t="n"/>
-      <c r="X57" s="47" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="X57" s="50" t="n">
+        <v>45307</v>
+      </c>
       <c r="Y57" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="47" t="n"/>
-      <c r="AA57" s="47" t="n"/>
-      <c r="AB57" s="48" t="n"/>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="60">
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <v/>
+      </c>
+      <c r="AA57" s="60">
+        <f>((E18*D18)+Z18)</f>
+        <v/>
+      </c>
+      <c r="AB57" s="61">
+        <f>D18</f>
+        <v/>
+      </c>
       <c r="AC57" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD57" s="62" t="inlineStr">
@@ -3986,7 +3928,7 @@
     </row>
     <row r="58">
       <c r="A58" s="54" t="n">
-        <v>44214</v>
+        <v>44239</v>
       </c>
       <c r="B58" s="55" t="inlineStr">
         <is>
@@ -3995,17 +3937,17 @@
       </c>
       <c r="C58" s="55" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D58" s="57" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>204.249</v>
+        <v>217.931</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>2056.51</v>
+        <v>26336.62</v>
       </c>
       <c r="G58" s="57" t="inlineStr">
         <is>
@@ -4013,78 +3955,65 @@
         </is>
       </c>
       <c r="H58" s="57" t="n">
-        <v>1.59</v>
+        <v>26.54</v>
       </c>
       <c r="I58" s="57" t="n">
-        <v>12.42</v>
+        <v>158.14</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="42" t="n"/>
-      <c r="L58" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
-        <v/>
-      </c>
-      <c r="M58" s="63">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="N58" s="64">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O58" s="42" t="n"/>
-      <c r="P58" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="R58" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+      <c r="K58" s="47" t="n"/>
+      <c r="L58" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="59">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="58" t="n"/>
+      <c r="P58" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S58" s="58" t="n"/>
       <c r="T58" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U58" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V58" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X58" s="54" t="n">
-        <v>44239</v>
-      </c>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="47" t="n"/>
+      <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="60">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="60">
-        <f>((E20*D20)+Z20)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="61">
-        <f>D20</f>
-        <v/>
-      </c>
-      <c r="AC58" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="47" t="n"/>
+      <c r="AA58" s="47" t="n"/>
+      <c r="AB58" s="48" t="n"/>
+      <c r="AC58" s="44">
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD58" s="62" t="inlineStr">
@@ -4095,7 +4024,7 @@
     </row>
     <row r="59">
       <c r="A59" s="54" t="n">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B59" s="55" t="inlineStr">
         <is>
@@ -4111,10 +4040,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>206.996</v>
+        <v>204.249</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>2084.34</v>
+        <v>2056.51</v>
       </c>
       <c r="G59" s="57" t="inlineStr">
         <is>
@@ -4122,10 +4051,10 @@
         </is>
       </c>
       <c r="H59" s="57" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="I59" s="57" t="n">
-        <v>12.6</v>
+        <v>12.42</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4133,41 +4062,41 @@
       </c>
       <c r="K59" s="42" t="n"/>
       <c r="L59" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
         <v/>
       </c>
       <c r="M59" s="63">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
         <v/>
       </c>
       <c r="N59" s="64">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O59" s="42" t="n"/>
       <c r="P59" s="42">
-        <f>if(C21="DIV", G21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="Q59" s="65">
-        <f>if(D21="DIV", H21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="R59" s="65">
-        <f>if(E21="DIV", I21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S59" s="58" t="n"/>
       <c r="T59" s="58">
-        <f>if(G21="DIV", N21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="U59" s="58">
-        <f>if(H21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="V59" s="58">
-        <f>if(I21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W59" s="42" t="n">
@@ -4177,23 +4106,23 @@
         <v>44239</v>
       </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z59" s="60">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA59" s="60">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB59" s="61">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC59" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD59" s="62" t="inlineStr">
@@ -4204,7 +4133,7 @@
     </row>
     <row r="60">
       <c r="A60" s="54" t="n">
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="B60" s="55" t="inlineStr">
         <is>
@@ -4217,13 +4146,13 @@
         </is>
       </c>
       <c r="D60" s="57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>204.745</v>
+        <v>206.996</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>10308.25</v>
+        <v>2084.34</v>
       </c>
       <c r="G60" s="57" t="inlineStr">
         <is>
@@ -4231,10 +4160,10 @@
         </is>
       </c>
       <c r="H60" s="57" t="n">
-        <v>9.5</v>
+        <v>1.74</v>
       </c>
       <c r="I60" s="57" t="n">
-        <v>61.25</v>
+        <v>12.6</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4242,41 +4171,41 @@
       </c>
       <c r="K60" s="42" t="n"/>
       <c r="L60" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
         <v/>
       </c>
       <c r="M60" s="63">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
         <v/>
       </c>
       <c r="N60" s="64">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O60" s="42" t="n"/>
       <c r="P60" s="42">
-        <f>if(C22="DIV", G22,"")</f>
+        <f>if(C21="DIV", G21,"")</f>
         <v/>
       </c>
       <c r="Q60" s="65">
-        <f>if(D22="DIV", H22,"")</f>
+        <f>if(D21="DIV", H21,"")</f>
         <v/>
       </c>
       <c r="R60" s="65">
-        <f>if(E22="DIV", I22,"")</f>
+        <f>if(E21="DIV", I21,"")</f>
         <v/>
       </c>
       <c r="S60" s="58" t="n"/>
       <c r="T60" s="58">
-        <f>if(G22="DIV", N22,"")</f>
+        <f>if(G21="DIV", N21,"")</f>
         <v/>
       </c>
       <c r="U60" s="58">
-        <f>if(H22="DIV", #REF!,"")</f>
+        <f>if(H21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V60" s="58">
-        <f>if(I22="DIV", #REF!,"")</f>
+        <f>if(I21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W60" s="42" t="n">
@@ -4286,23 +4215,23 @@
         <v>44239</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z60" s="60">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA60" s="60">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB60" s="61">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC60" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD60" s="62" t="inlineStr">
@@ -4313,7 +4242,7 @@
     </row>
     <row r="61">
       <c r="A61" s="54" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B61" s="55" t="inlineStr">
         <is>
@@ -4329,10 +4258,10 @@
         <v>50</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>203.9548</v>
+        <v>204.745</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>10268.26</v>
+        <v>10308.25</v>
       </c>
       <c r="G61" s="57" t="inlineStr">
         <is>
@@ -4340,10 +4269,10 @@
         </is>
       </c>
       <c r="H61" s="57" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="I61" s="57" t="n">
-        <v>61.27</v>
+        <v>61.25</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4351,41 +4280,41 @@
       </c>
       <c r="K61" s="42" t="n"/>
       <c r="L61" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
         <v/>
       </c>
       <c r="M61" s="63">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
         <v/>
       </c>
       <c r="N61" s="64">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O61" s="42" t="n"/>
       <c r="P61" s="42">
-        <f>if(C23="DIV", G23,"")</f>
+        <f>if(C22="DIV", G22,"")</f>
         <v/>
       </c>
       <c r="Q61" s="65">
-        <f>if(D23="DIV", H23,"")</f>
+        <f>if(D22="DIV", H22,"")</f>
         <v/>
       </c>
       <c r="R61" s="65">
-        <f>if(E23="DIV", I23,"")</f>
+        <f>if(E22="DIV", I22,"")</f>
         <v/>
       </c>
       <c r="S61" s="58" t="n"/>
       <c r="T61" s="58">
-        <f>if(G23="DIV", N23,"")</f>
+        <f>if(G22="DIV", N22,"")</f>
         <v/>
       </c>
       <c r="U61" s="58">
-        <f>if(H23="DIV", #REF!,"")</f>
+        <f>if(H22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V61" s="58">
-        <f>if(I23="DIV", #REF!,"")</f>
+        <f>if(I22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W61" s="42" t="n">
@@ -4395,23 +4324,23 @@
         <v>44239</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA61" s="60">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB61" s="61">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC61" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD61" s="62" t="inlineStr">
@@ -4421,20 +4350,113 @@
       </c>
     </row>
     <row r="62">
-      <c r="E62" s="66" t="n"/>
-      <c r="F62" s="66" t="n"/>
-      <c r="G62" s="67" t="n"/>
-      <c r="J62" s="66" t="n"/>
-      <c r="K62" s="66" t="n"/>
-      <c r="L62" s="66" t="n"/>
-      <c r="M62" s="69" t="n"/>
-      <c r="W62" s="66" t="n"/>
-      <c r="X62" s="66" t="n"/>
-      <c r="Y62" s="66" t="n"/>
-      <c r="Z62" s="66" t="n"/>
-      <c r="AA62" s="66" t="n"/>
-      <c r="AB62" s="66" t="n"/>
-      <c r="AC62" s="66" t="n"/>
+      <c r="A62" s="54" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B62" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C62" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E62" s="42" t="n">
+        <v>203.9548</v>
+      </c>
+      <c r="F62" s="42" t="n">
+        <v>10268.26</v>
+      </c>
+      <c r="G62" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H62" s="57" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I62" s="57" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="J62" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K62" s="42" t="n"/>
+      <c r="L62" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="63">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="64">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="42" t="n"/>
+      <c r="P62" s="42">
+        <f>if(C23="DIV", G23,"")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="65">
+        <f>if(D23="DIV", H23,"")</f>
+        <v/>
+      </c>
+      <c r="R62" s="65">
+        <f>if(E23="DIV", I23,"")</f>
+        <v/>
+      </c>
+      <c r="S62" s="58" t="n"/>
+      <c r="T62" s="58">
+        <f>if(G23="DIV", N23,"")</f>
+        <v/>
+      </c>
+      <c r="U62" s="58">
+        <f>if(H23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V62" s="58">
+        <f>if(I23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W62" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X62" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y62" s="46">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="60">
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="60">
+        <f>((E23*D23)+Z23)</f>
+        <v/>
+      </c>
+      <c r="AB62" s="61">
+        <f>D23</f>
+        <v/>
+      </c>
+      <c r="AC62" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="E63" s="66" t="n"/>
@@ -20027,6 +20049,7 @@
       <c r="J1037" s="66" t="n"/>
       <c r="K1037" s="66" t="n"/>
       <c r="L1037" s="66" t="n"/>
+      <c r="M1037" s="69" t="n"/>
       <c r="W1037" s="66" t="n"/>
       <c r="X1037" s="66" t="n"/>
       <c r="Y1037" s="66" t="n"/>
@@ -20274,6 +20297,21 @@
       <c r="AA1053" s="66" t="n"/>
       <c r="AB1053" s="66" t="n"/>
       <c r="AC1053" s="66" t="n"/>
+    </row>
+    <row r="1054">
+      <c r="E1054" s="66" t="n"/>
+      <c r="F1054" s="66" t="n"/>
+      <c r="G1054" s="67" t="n"/>
+      <c r="J1054" s="66" t="n"/>
+      <c r="K1054" s="66" t="n"/>
+      <c r="L1054" s="66" t="n"/>
+      <c r="W1054" s="66" t="n"/>
+      <c r="X1054" s="66" t="n"/>
+      <c r="Y1054" s="66" t="n"/>
+      <c r="Z1054" s="66" t="n"/>
+      <c r="AA1054" s="66" t="n"/>
+      <c r="AB1054" s="66" t="n"/>
+      <c r="AC1054" s="66" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$92"/>

--- a/dumps/Stocks/Va Tech Wabag Ltd.xlsx
+++ b/dumps/Stocks/Va Tech Wabag Ltd.xlsx
@@ -794,7 +794,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1054"/>
+  <dimension ref="A1:AP1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1146,11 +1146,11 @@
     </row>
     <row r="5">
       <c r="A5" s="102" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1159,21 +1159,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1402.75</v>
+        <v>1404.46666667</v>
       </c>
       <c r="F5" t="n">
-        <v>2819.52</v>
+        <v>4234.46</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>14.02</v>
+        <v>21.06</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1181,8 +1181,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="101" t="n">
-        <v>46050</v>
+      <c r="A6" s="102" t="n">
+        <v>45957</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1195,29 +1195,30 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1075.5</v>
+        <v>1402.75</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3249.4</v>
+        <v>2819.52</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I6" s="0" t="n">
-        <v>19.65</v>
+        <v>14.02</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="101" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1230,13 +1231,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1052.3</v>
+        <v>1075.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7418.29</v>
+        <v>3249.4</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1244,15 +1245,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>7.35</v>
+        <v>3.25</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>44.84</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="101" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1265,13 +1266,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1195</v>
+        <v>1052.3</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3610.41</v>
+        <v>7418.29</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1279,15 +1280,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.59</v>
+        <v>7.35</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>21.82</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="101" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1300,13 +1301,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1188.1</v>
+        <v>1195</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5982.6</v>
+        <v>3610.41</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1314,15 +1315,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>5.95</v>
+        <v>3.59</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>36.15</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="101" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1335,13 +1336,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1291.6</v>
+        <v>1188.1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3902.25</v>
+        <v>5982.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1349,19 +1350,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>23.59</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="101" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1373,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1294.6</v>
+        <v>1291.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3911.38</v>
+        <v>3902.25</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1387,12 +1388,12 @@
         <v>3.86</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23.72</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="101" t="n">
-        <v>46020</v>
+        <v>46024</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1405,13 +1406,13 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1276.55</v>
+        <v>1294.6</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5142.49</v>
+        <v>3911.38</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1419,19 +1420,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>5.13</v>
+        <v>3.86</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>31.16</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="101" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1440,13 +1441,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1286.8</v>
+        <v>1276.55</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3887.74</v>
+        <v>5142.49</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1454,15 +1455,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.84</v>
+        <v>5.13</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>23.5</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="101" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1475,13 +1476,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1307</v>
+        <v>1286.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1316.26</v>
+        <v>3887.74</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1489,10 +1490,10 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.3</v>
+        <v>3.84</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>7.96</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="15">
@@ -1510,13 +1511,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1307</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2632.53</v>
+        <v>1316.26</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1524,19 +1525,19 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="101" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1545,13 +1546,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1282.1</v>
+        <v>1307</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3873.58</v>
+        <v>2632.53</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1559,10 +1560,10 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.86</v>
+        <v>2.6</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>23.42</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="17">
@@ -1580,13 +1581,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1282.15</v>
+        <v>1282.1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1291.24</v>
+        <v>3873.58</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1594,19 +1595,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.28</v>
+        <v>3.86</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>7.81</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="101" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1615,13 +1616,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1303.1</v>
+        <v>1282.15</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6561.71</v>
+        <v>1291.24</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1629,19 +1630,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>6.5</v>
+        <v>1.28</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>39.71</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="101" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1653,10 +1654,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1264.75</v>
+        <v>1303.1</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6368.6</v>
+        <v>6561.71</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1664,19 +1665,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>6.34</v>
+        <v>6.5</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>38.51</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="101" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1685,13 +1686,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1309.7</v>
+        <v>1264.75</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1318.98</v>
+        <v>6368.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1699,10 +1700,10 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.31</v>
+        <v>6.34</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>7.97</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="21">
@@ -1720,13 +1721,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1309.7</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2637.97</v>
+        <v>1318.98</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1734,19 +1735,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>2.61</v>
+        <v>1.31</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>15.96</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="101" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1755,13 +1756,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1376.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4159.68</v>
+        <v>2637.97</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1769,19 +1770,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.11</v>
+        <v>2.61</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>25.17</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="101" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1793,10 +1794,10 @@
         <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1376.3</v>
+        <v>1376.8</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4158.17</v>
+        <v>4159.68</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1804,15 +1805,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>25.11</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="101" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1825,13 +1826,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1369.8</v>
+        <v>1376.3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2759.04</v>
+        <v>4158.17</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1839,10 +1840,10 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>2.74</v>
+        <v>4.16</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>16.7</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="25">
@@ -1860,13 +1861,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1369.8</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1379.52</v>
+        <v>2759.04</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1874,19 +1875,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>8.35</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="101" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1895,13 +1896,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1433.55</v>
+        <v>1369.8</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2887.45</v>
+        <v>1379.52</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1909,15 +1910,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.85</v>
+        <v>1.37</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>17.5</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="101" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1930,13 +1931,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1404.35</v>
+        <v>1433.55</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>4242.94</v>
+        <v>2887.45</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1944,19 +1945,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>4.22</v>
+        <v>2.85</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>25.67</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="101" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1965,13 +1966,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1413.5</v>
+        <v>1404.35</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2847.04</v>
+        <v>4242.94</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1979,15 +1980,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.84</v>
+        <v>4.22</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>17.2</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="101" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -2003,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1404</v>
+        <v>1413.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2827.9</v>
+        <v>2847.04</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2014,15 +2015,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>17.08</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="101" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2035,13 +2036,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1407.3</v>
+        <v>1404</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1417.26</v>
+        <v>2827.9</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2049,10 +2050,10 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>8.56</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="31">
@@ -2092,11 +2093,11 @@
     </row>
     <row r="32">
       <c r="A32" s="101" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2105,13 +2106,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1409.5</v>
+        <v>1407.3</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>7097.51</v>
+        <v>1417.26</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2119,19 +2120,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>43.01</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="101" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2143,10 +2144,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1357.6</v>
+        <v>1409.5</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>6836.07</v>
+        <v>7097.51</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2154,15 +2155,15 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>41.32</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="101" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
@@ -2175,13 +2176,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1351.8</v>
+        <v>1357.6</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2722.77</v>
+        <v>6836.07</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2189,15 +2190,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2.7</v>
+        <v>6.75</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>16.47</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="101" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2213,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1416.8</v>
+        <v>1351.8</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2853.65</v>
+        <v>2722.77</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2224,19 +2225,19 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>17.23</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="101" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
@@ -2245,13 +2246,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1404.2</v>
+        <v>1416.8</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1414.14</v>
+        <v>2853.65</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2259,10 +2260,10 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>8.539999999999999</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="37">
@@ -2280,13 +2281,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1404.6</v>
+        <v>1404.2</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2829.11</v>
+        <v>1414.14</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2294,19 +2295,19 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>17.11</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="101" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
@@ -2315,13 +2316,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1402.8</v>
+        <v>1404.6</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1412.74</v>
+        <v>2829.11</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2329,10 +2330,10 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="39">
@@ -2353,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1402.7</v>
+        <v>1402.8</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1412.63</v>
+        <v>1412.74</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2367,16 +2368,16 @@
         <v>1.41</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>8.52</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="101" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
@@ -2385,13 +2386,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1419.85</v>
+        <v>1402.7</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>7149.61</v>
+        <v>1412.63</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2399,15 +2400,15 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>7.07</v>
+        <v>1.41</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>43.29</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="101" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
@@ -2423,10 +2424,10 @@
         <v>5</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1403.05</v>
+        <v>1419.85</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>7065.05</v>
+        <v>7149.61</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2434,19 +2435,19 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>7.01</v>
+        <v>7.07</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>42.79</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="101" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
@@ -2455,13 +2456,13 @@
         </is>
       </c>
       <c r="D42" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1402.9</v>
+        <v>1403.05</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>5651.36</v>
+        <v>7065.05</v>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
@@ -2469,10 +2470,10 @@
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>5.62</v>
+        <v>7.01</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>34.14</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="43">
@@ -2490,13 +2491,13 @@
         </is>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1402.8</v>
+        <v>1402.9</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1412.72</v>
+        <v>5651.36</v>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
@@ -2504,113 +2505,50 @@
         </is>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1.4</v>
+        <v>5.62</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>8.52</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B44" s="39" t="inlineStr">
+      <c r="A44" s="101" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C44" s="39" t="inlineStr">
+      <c r="C44" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D44" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E44" s="41" t="n">
-        <v>1413.01</v>
-      </c>
-      <c r="F44" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G44" s="39" t="inlineStr">
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1402.8</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1412.72</v>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H44" s="40" t="n"/>
-      <c r="I44" s="40" t="n"/>
-      <c r="J44" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K44" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L44" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M44" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N44" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O44" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P44" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q44" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R44" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S44" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T44" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U44" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V44" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W44" s="47" t="n"/>
-      <c r="X44" s="47" t="n"/>
-      <c r="Y44" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="47" t="n"/>
-      <c r="AA44" s="47" t="n"/>
-      <c r="AB44" s="48" t="n"/>
-      <c r="AC44" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD44" s="49" t="n"/>
+      <c r="H44" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B45" s="39" t="inlineStr">
         <is>
@@ -2626,10 +2564,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="41" t="n">
-        <v>1412.72</v>
+        <v>1413.01</v>
       </c>
       <c r="F45" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G45" s="39" t="inlineStr">
@@ -2644,75 +2582,75 @@
         <v/>
       </c>
       <c r="K45" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L45" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M45" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N45" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O45" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P45" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R45" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S45" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T45" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U45" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V45" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W45" s="47" t="n"/>
       <c r="X45" s="47" t="n"/>
       <c r="Y45" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z45" s="47" t="n"/>
       <c r="AA45" s="47" t="n"/>
       <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45874</v>
+        <v>45947</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" s="39" t="inlineStr">
@@ -2721,99 +2659,96 @@
         </is>
       </c>
       <c r="D46" s="40" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" s="41" t="n">
-        <v>100</v>
+        <v>1412.72</v>
+      </c>
+      <c r="F46" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G46" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H46" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H46" s="40" t="n"/>
+      <c r="I46" s="40" t="n"/>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -2822,88 +2757,88 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E47" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E47" s="41" t="n">
-        <v>1467.02</v>
-      </c>
       <c r="F47" s="41" t="n">
-        <v>5868.08</v>
+        <v>100</v>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
         </is>
       </c>
       <c r="H47" s="40" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="I47" s="40" t="n">
-        <v>35.46</v>
+        <v>0</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
@@ -2923,13 +2858,13 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="41" t="n">
-        <v>1467.12</v>
+        <v>1467.02</v>
       </c>
       <c r="F48" s="41" t="n">
-        <v>1467.12</v>
+        <v>5868.08</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
@@ -2937,175 +2872,175 @@
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>1.46</v>
+        <v>5.82</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>8.859999999999999</v>
+        <v>35.46</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B49" s="51" t="inlineStr">
+      <c r="A49" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B49" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C49" s="51" t="inlineStr">
+      <c r="C49" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" s="52" t="n">
+      <c r="D49" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F49" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G49" s="51" t="inlineStr">
+      <c r="E49" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="F49" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="G49" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I49" s="52" t="n">
-        <v>7.82</v>
+      <c r="H49" s="40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I49" s="40" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
@@ -3149,64 +3084,64 @@
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
@@ -3226,13 +3161,13 @@
         </is>
       </c>
       <c r="D51" s="52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="53" t="n">
         <v>1296.01</v>
       </c>
       <c r="F51" s="53" t="n">
-        <v>3888.03</v>
+        <v>1296.01</v>
       </c>
       <c r="G51" s="51" t="inlineStr">
         <is>
@@ -3240,81 +3175,81 @@
         </is>
       </c>
       <c r="H51" s="52" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I51" s="52" t="n">
-        <v>23.48</v>
+        <v>7.82</v>
       </c>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="50" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B52" s="51" t="inlineStr">
         <is>
@@ -3327,13 +3262,13 @@
         </is>
       </c>
       <c r="D52" s="52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="53" t="n">
-        <v>1437.12</v>
+        <v>1296.01</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>7185.59</v>
+        <v>3888.03</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3341,81 +3276,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>7.13</v>
+        <v>3.85</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>43.46</v>
+        <v>23.48</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3428,13 +3363,13 @@
         </is>
       </c>
       <c r="D53" s="52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="53" t="n">
-        <v>1362.48</v>
+        <v>1437.12</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>8174.89</v>
+        <v>7185.59</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3442,81 +3377,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>8.109999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>49.38</v>
+        <v>43.46</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -3529,13 +3464,13 @@
         </is>
       </c>
       <c r="D54" s="52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E54" s="53" t="n">
-        <v>1383.59</v>
+        <v>1362.48</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>2767.17</v>
+        <v>8174.89</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -3543,81 +3478,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>2.75</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>16.72</v>
+        <v>49.38</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -3633,10 +3568,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="53" t="n">
-        <v>1398.44</v>
+        <v>1383.59</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>2796.88</v>
+        <v>2767.17</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -3644,81 +3579,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>16.91</v>
+        <v>16.72</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>45307</v>
+        <v>45694</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -3727,17 +3662,17 @@
       </c>
       <c r="C56" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D56" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="53" t="n">
-        <v>658.4</v>
+        <v>1398.44</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>3292</v>
+        <v>2796.88</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -3745,190 +3680,182 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>3.29</v>
+        <v>2.77</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>19.71</v>
+        <v>16.91</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="54" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B57" s="55" t="inlineStr">
+      <c r="A57" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B57" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C57" s="55" t="inlineStr">
+      <c r="C57" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D57" s="57" t="n">
+      <c r="D57" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E57" s="42" t="n">
-        <v>450.95</v>
-      </c>
-      <c r="F57" s="42" t="n">
-        <v>2270.75</v>
-      </c>
-      <c r="G57" s="57" t="inlineStr">
+      <c r="E57" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="F57" s="53" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G57" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H57" s="57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I57" s="57" t="n">
-        <v>13.73</v>
+      <c r="H57" s="52" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I57" s="52" t="n">
+        <v>19.71</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K57" s="47" t="n"/>
-      <c r="L57" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N57" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O57" s="58" t="n"/>
-      <c r="P57" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S57" s="58" t="n"/>
-      <c r="T57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V57" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W57" s="53" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="X57" s="50" t="n">
-        <v>45307</v>
-      </c>
+      <c r="K57" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L57" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M57" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N57" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O57" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P57" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R57" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S57" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T57" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U57" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V57" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W57" s="47" t="n"/>
+      <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z57" s="60">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA57" s="60">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB57" s="61">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z57" s="47" t="n"/>
+      <c r="AA57" s="47" t="n"/>
+      <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD57" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD57" s="49" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="54" t="n">
-        <v>44239</v>
+        <v>45225</v>
       </c>
       <c r="B58" s="55" t="inlineStr">
         <is>
@@ -3937,17 +3864,17 @@
       </c>
       <c r="C58" s="55" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D58" s="57" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E58" s="42" t="n">
-        <v>217.931</v>
+        <v>450.95</v>
       </c>
       <c r="F58" s="42" t="n">
-        <v>26336.62</v>
+        <v>2270.75</v>
       </c>
       <c r="G58" s="57" t="inlineStr">
         <is>
@@ -3955,10 +3882,10 @@
         </is>
       </c>
       <c r="H58" s="57" t="n">
-        <v>26.54</v>
+        <v>2.27</v>
       </c>
       <c r="I58" s="57" t="n">
-        <v>158.14</v>
+        <v>13.73</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
@@ -3966,54 +3893,67 @@
       </c>
       <c r="K58" s="47" t="n"/>
       <c r="L58" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N58" s="59">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O58" s="58" t="n"/>
       <c r="P58" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S58" s="58" t="n"/>
       <c r="T58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V58" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="47" t="n"/>
-      <c r="X58" s="47" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="X58" s="50" t="n">
+        <v>45307</v>
+      </c>
       <c r="Y58" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="47" t="n"/>
-      <c r="AA58" s="47" t="n"/>
-      <c r="AB58" s="48" t="n"/>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="60">
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <v/>
+      </c>
+      <c r="AA58" s="60">
+        <f>((E18*D18)+Z18)</f>
+        <v/>
+      </c>
+      <c r="AB58" s="61">
+        <f>D18</f>
+        <v/>
+      </c>
       <c r="AC58" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD58" s="62" t="inlineStr">
@@ -4024,7 +3964,7 @@
     </row>
     <row r="59">
       <c r="A59" s="54" t="n">
-        <v>44214</v>
+        <v>44239</v>
       </c>
       <c r="B59" s="55" t="inlineStr">
         <is>
@@ -4033,17 +3973,17 @@
       </c>
       <c r="C59" s="55" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D59" s="57" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>204.249</v>
+        <v>217.931</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>2056.51</v>
+        <v>26336.62</v>
       </c>
       <c r="G59" s="57" t="inlineStr">
         <is>
@@ -4051,78 +3991,65 @@
         </is>
       </c>
       <c r="H59" s="57" t="n">
-        <v>1.59</v>
+        <v>26.54</v>
       </c>
       <c r="I59" s="57" t="n">
-        <v>12.42</v>
+        <v>158.14</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K59" s="42" t="n"/>
-      <c r="L59" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
-        <v/>
-      </c>
-      <c r="M59" s="63">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="N59" s="64">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O59" s="42" t="n"/>
-      <c r="P59" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="R59" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+      <c r="K59" s="47" t="n"/>
+      <c r="L59" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="59">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="58" t="n"/>
+      <c r="P59" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S59" s="58" t="n"/>
       <c r="T59" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U59" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V59" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X59" s="54" t="n">
-        <v>44239</v>
-      </c>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="47" t="n"/>
+      <c r="X59" s="47" t="n"/>
       <c r="Y59" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="60">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
-        <v/>
-      </c>
-      <c r="AA59" s="60">
-        <f>((E20*D20)+Z20)</f>
-        <v/>
-      </c>
-      <c r="AB59" s="61">
-        <f>D20</f>
-        <v/>
-      </c>
-      <c r="AC59" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="47" t="n"/>
+      <c r="AA59" s="47" t="n"/>
+      <c r="AB59" s="48" t="n"/>
+      <c r="AC59" s="44">
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD59" s="62" t="inlineStr">
@@ -4133,7 +4060,7 @@
     </row>
     <row r="60">
       <c r="A60" s="54" t="n">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B60" s="55" t="inlineStr">
         <is>
@@ -4149,10 +4076,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>206.996</v>
+        <v>204.249</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>2084.34</v>
+        <v>2056.51</v>
       </c>
       <c r="G60" s="57" t="inlineStr">
         <is>
@@ -4160,10 +4087,10 @@
         </is>
       </c>
       <c r="H60" s="57" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="I60" s="57" t="n">
-        <v>12.6</v>
+        <v>12.42</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
@@ -4171,41 +4098,41 @@
       </c>
       <c r="K60" s="42" t="n"/>
       <c r="L60" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
         <v/>
       </c>
       <c r="M60" s="63">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
         <v/>
       </c>
       <c r="N60" s="64">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O60" s="42" t="n"/>
       <c r="P60" s="42">
-        <f>if(C21="DIV", G21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="Q60" s="65">
-        <f>if(D21="DIV", H21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="R60" s="65">
-        <f>if(E21="DIV", I21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S60" s="58" t="n"/>
       <c r="T60" s="58">
-        <f>if(G21="DIV", N21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="U60" s="58">
-        <f>if(H21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="V60" s="58">
-        <f>if(I21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W60" s="42" t="n">
@@ -4215,23 +4142,23 @@
         <v>44239</v>
       </c>
       <c r="Y60" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z60" s="60">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA60" s="60">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB60" s="61">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC60" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD60" s="62" t="inlineStr">
@@ -4242,7 +4169,7 @@
     </row>
     <row r="61">
       <c r="A61" s="54" t="n">
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="B61" s="55" t="inlineStr">
         <is>
@@ -4255,13 +4182,13 @@
         </is>
       </c>
       <c r="D61" s="57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>204.745</v>
+        <v>206.996</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>10308.25</v>
+        <v>2084.34</v>
       </c>
       <c r="G61" s="57" t="inlineStr">
         <is>
@@ -4269,10 +4196,10 @@
         </is>
       </c>
       <c r="H61" s="57" t="n">
-        <v>9.5</v>
+        <v>1.74</v>
       </c>
       <c r="I61" s="57" t="n">
-        <v>61.25</v>
+        <v>12.6</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4280,41 +4207,41 @@
       </c>
       <c r="K61" s="42" t="n"/>
       <c r="L61" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
         <v/>
       </c>
       <c r="M61" s="63">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
         <v/>
       </c>
       <c r="N61" s="64">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O61" s="42" t="n"/>
       <c r="P61" s="42">
-        <f>if(C22="DIV", G22,"")</f>
+        <f>if(C21="DIV", G21,"")</f>
         <v/>
       </c>
       <c r="Q61" s="65">
-        <f>if(D22="DIV", H22,"")</f>
+        <f>if(D21="DIV", H21,"")</f>
         <v/>
       </c>
       <c r="R61" s="65">
-        <f>if(E22="DIV", I22,"")</f>
+        <f>if(E21="DIV", I21,"")</f>
         <v/>
       </c>
       <c r="S61" s="58" t="n"/>
       <c r="T61" s="58">
-        <f>if(G22="DIV", N22,"")</f>
+        <f>if(G21="DIV", N21,"")</f>
         <v/>
       </c>
       <c r="U61" s="58">
-        <f>if(H22="DIV", #REF!,"")</f>
+        <f>if(H21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V61" s="58">
-        <f>if(I22="DIV", #REF!,"")</f>
+        <f>if(I21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W61" s="42" t="n">
@@ -4324,23 +4251,23 @@
         <v>44239</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA61" s="60">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB61" s="61">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC61" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD61" s="62" t="inlineStr">
@@ -4351,7 +4278,7 @@
     </row>
     <row r="62">
       <c r="A62" s="54" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B62" s="55" t="inlineStr">
         <is>
@@ -4367,10 +4294,10 @@
         <v>50</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>203.9548</v>
+        <v>204.745</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>10268.26</v>
+        <v>10308.25</v>
       </c>
       <c r="G62" s="57" t="inlineStr">
         <is>
@@ -4378,10 +4305,10 @@
         </is>
       </c>
       <c r="H62" s="57" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="I62" s="57" t="n">
-        <v>61.27</v>
+        <v>61.25</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4389,41 +4316,41 @@
       </c>
       <c r="K62" s="42" t="n"/>
       <c r="L62" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
         <v/>
       </c>
       <c r="M62" s="63">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
         <v/>
       </c>
       <c r="N62" s="64">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O62" s="42" t="n"/>
       <c r="P62" s="42">
-        <f>if(C23="DIV", G23,"")</f>
+        <f>if(C22="DIV", G22,"")</f>
         <v/>
       </c>
       <c r="Q62" s="65">
-        <f>if(D23="DIV", H23,"")</f>
+        <f>if(D22="DIV", H22,"")</f>
         <v/>
       </c>
       <c r="R62" s="65">
-        <f>if(E23="DIV", I23,"")</f>
+        <f>if(E22="DIV", I22,"")</f>
         <v/>
       </c>
       <c r="S62" s="58" t="n"/>
       <c r="T62" s="58">
-        <f>if(G23="DIV", N23,"")</f>
+        <f>if(G22="DIV", N22,"")</f>
         <v/>
       </c>
       <c r="U62" s="58">
-        <f>if(H23="DIV", #REF!,"")</f>
+        <f>if(H22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V62" s="58">
-        <f>if(I23="DIV", #REF!,"")</f>
+        <f>if(I22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W62" s="42" t="n">
@@ -4433,23 +4360,23 @@
         <v>44239</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z62" s="60">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA62" s="60">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB62" s="61">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC62" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD62" s="62" t="inlineStr">
@@ -4459,20 +4386,113 @@
       </c>
     </row>
     <row r="63">
-      <c r="E63" s="66" t="n"/>
-      <c r="F63" s="66" t="n"/>
-      <c r="G63" s="67" t="n"/>
-      <c r="J63" s="66" t="n"/>
-      <c r="K63" s="66" t="n"/>
-      <c r="L63" s="66" t="n"/>
-      <c r="M63" s="69" t="n"/>
-      <c r="W63" s="66" t="n"/>
-      <c r="X63" s="66" t="n"/>
-      <c r="Y63" s="66" t="n"/>
-      <c r="Z63" s="66" t="n"/>
-      <c r="AA63" s="66" t="n"/>
-      <c r="AB63" s="66" t="n"/>
-      <c r="AC63" s="66" t="n"/>
+      <c r="A63" s="54" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B63" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E63" s="42" t="n">
+        <v>203.9548</v>
+      </c>
+      <c r="F63" s="42" t="n">
+        <v>10268.26</v>
+      </c>
+      <c r="G63" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" s="57" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I63" s="57" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="J63" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K63" s="42" t="n"/>
+      <c r="L63" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="63">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <v/>
+      </c>
+      <c r="N63" s="64">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O63" s="42" t="n"/>
+      <c r="P63" s="42">
+        <f>if(C23="DIV", G23,"")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="65">
+        <f>if(D23="DIV", H23,"")</f>
+        <v/>
+      </c>
+      <c r="R63" s="65">
+        <f>if(E23="DIV", I23,"")</f>
+        <v/>
+      </c>
+      <c r="S63" s="58" t="n"/>
+      <c r="T63" s="58">
+        <f>if(G23="DIV", N23,"")</f>
+        <v/>
+      </c>
+      <c r="U63" s="58">
+        <f>if(H23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V63" s="58">
+        <f>if(I23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W63" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X63" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y63" s="46">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z63" s="60">
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <v/>
+      </c>
+      <c r="AA63" s="60">
+        <f>((E23*D23)+Z23)</f>
+        <v/>
+      </c>
+      <c r="AB63" s="61">
+        <f>D23</f>
+        <v/>
+      </c>
+      <c r="AC63" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD63" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="E64" s="66" t="n"/>
@@ -20065,6 +20085,7 @@
       <c r="J1038" s="66" t="n"/>
       <c r="K1038" s="66" t="n"/>
       <c r="L1038" s="66" t="n"/>
+      <c r="M1038" s="69" t="n"/>
       <c r="W1038" s="66" t="n"/>
       <c r="X1038" s="66" t="n"/>
       <c r="Y1038" s="66" t="n"/>
@@ -20312,6 +20333,21 @@
       <c r="AA1054" s="66" t="n"/>
       <c r="AB1054" s="66" t="n"/>
       <c r="AC1054" s="66" t="n"/>
+    </row>
+    <row r="1055">
+      <c r="E1055" s="66" t="n"/>
+      <c r="F1055" s="66" t="n"/>
+      <c r="G1055" s="67" t="n"/>
+      <c r="J1055" s="66" t="n"/>
+      <c r="K1055" s="66" t="n"/>
+      <c r="L1055" s="66" t="n"/>
+      <c r="W1055" s="66" t="n"/>
+      <c r="X1055" s="66" t="n"/>
+      <c r="Y1055" s="66" t="n"/>
+      <c r="Z1055" s="66" t="n"/>
+      <c r="AA1055" s="66" t="n"/>
+      <c r="AB1055" s="66" t="n"/>
+      <c r="AC1055" s="66" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$92"/>

--- a/dumps/Stocks/Va Tech Wabag Ltd.xlsx
+++ b/dumps/Stocks/Va Tech Wabag Ltd.xlsx
@@ -794,7 +794,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1055"/>
+  <dimension ref="A1:AP1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1146,11 +1146,11 @@
     </row>
     <row r="5">
       <c r="A5" s="102" t="n">
-        <v>45959</v>
+        <v>45974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1159,21 +1159,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1404.46666667</v>
+        <v>1407.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4234.46</v>
+        <v>2828.68</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>21.06</v>
+        <v>14.08</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1182,11 +1182,11 @@
     </row>
     <row r="6">
       <c r="A6" s="102" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1195,21 +1195,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1402.75</v>
+        <v>1404.46666667</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2819.52</v>
+        <v>4234.46</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>14.02</v>
+        <v>21.06</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1217,8 +1217,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="101" t="n">
-        <v>46050</v>
+      <c r="A7" s="102" t="n">
+        <v>45957</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1231,29 +1231,30 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1075.5</v>
+        <v>1402.75</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3249.4</v>
+        <v>2819.52</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I7" s="0" t="n">
-        <v>19.65</v>
+        <v>14.02</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="101" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1266,13 +1267,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1052.3</v>
+        <v>1075.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7418.29</v>
+        <v>3249.4</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1280,15 +1281,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>7.35</v>
+        <v>3.25</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>44.84</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="101" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1301,13 +1302,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1195</v>
+        <v>1052.3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3610.41</v>
+        <v>7418.29</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1315,15 +1316,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.59</v>
+        <v>7.35</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>21.82</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="101" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1336,13 +1337,13 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1188.1</v>
+        <v>1195</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5982.6</v>
+        <v>3610.41</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1350,15 +1351,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>5.95</v>
+        <v>3.59</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>36.15</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="101" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1371,13 +1372,13 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1291.6</v>
+        <v>1188.1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3902.25</v>
+        <v>5982.6</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1385,19 +1386,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.86</v>
+        <v>5.95</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23.59</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="101" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1409,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1294.6</v>
+        <v>1291.6</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3911.38</v>
+        <v>3902.25</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1423,12 +1424,12 @@
         <v>3.86</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>23.72</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="101" t="n">
-        <v>46020</v>
+        <v>46024</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1441,13 +1442,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1276.55</v>
+        <v>1294.6</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5142.49</v>
+        <v>3911.38</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1455,19 +1456,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>5.13</v>
+        <v>3.86</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>31.16</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="101" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1476,13 +1477,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1286.8</v>
+        <v>1276.55</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3887.74</v>
+        <v>5142.49</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1490,15 +1491,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.84</v>
+        <v>5.13</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>23.5</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="101" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1511,13 +1512,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1307</v>
+        <v>1286.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1316.26</v>
+        <v>3887.74</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1525,10 +1526,10 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.3</v>
+        <v>3.84</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>7.96</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="16">
@@ -1546,13 +1547,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1307</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2632.53</v>
+        <v>1316.26</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1560,19 +1561,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>15.93</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="101" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1581,13 +1582,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1282.1</v>
+        <v>1307</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3873.58</v>
+        <v>2632.53</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1595,10 +1596,10 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.86</v>
+        <v>2.6</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>23.42</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="18">
@@ -1616,13 +1617,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1282.15</v>
+        <v>1282.1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1291.24</v>
+        <v>3873.58</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1630,19 +1631,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.28</v>
+        <v>3.86</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>7.81</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="101" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1651,13 +1652,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1303.1</v>
+        <v>1282.15</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6561.71</v>
+        <v>1291.24</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1665,19 +1666,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>6.5</v>
+        <v>1.28</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>39.71</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="101" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1689,10 +1690,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1264.75</v>
+        <v>1303.1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6368.6</v>
+        <v>6561.71</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1700,19 +1701,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>6.34</v>
+        <v>6.5</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>38.51</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="101" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1721,13 +1722,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1309.7</v>
+        <v>1264.75</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1318.98</v>
+        <v>6368.6</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1735,10 +1736,10 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.31</v>
+        <v>6.34</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>7.97</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="22">
@@ -1756,13 +1757,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1309.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2637.97</v>
+        <v>1318.98</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1770,19 +1771,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2.61</v>
+        <v>1.31</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>15.96</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="101" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1791,13 +1792,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1376.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4159.68</v>
+        <v>2637.97</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1805,19 +1806,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4.11</v>
+        <v>2.61</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>25.17</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="101" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1829,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1376.3</v>
+        <v>1376.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4158.17</v>
+        <v>4159.68</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1840,15 +1841,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>25.11</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="101" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1861,13 +1862,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1369.8</v>
+        <v>1376.3</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2759.04</v>
+        <v>4158.17</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1875,10 +1876,10 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2.74</v>
+        <v>4.16</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>16.7</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="26">
@@ -1896,13 +1897,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1369.8</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1379.52</v>
+        <v>2759.04</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1910,19 +1911,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>8.35</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="101" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1931,13 +1932,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1433.55</v>
+        <v>1369.8</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2887.45</v>
+        <v>1379.52</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1945,15 +1946,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>2.85</v>
+        <v>1.37</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>17.5</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="101" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1966,13 +1967,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1404.35</v>
+        <v>1433.55</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>4242.94</v>
+        <v>2887.45</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1980,19 +1981,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>4.22</v>
+        <v>2.85</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>25.67</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="101" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -2001,13 +2002,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1413.5</v>
+        <v>1404.35</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2847.04</v>
+        <v>4242.94</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2015,15 +2016,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2.84</v>
+        <v>4.22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>17.2</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="101" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2039,10 +2040,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1404</v>
+        <v>1413.5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2827.9</v>
+        <v>2847.04</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2050,15 +2051,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>17.08</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="101" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2071,13 +2072,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1407.3</v>
+        <v>1404</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1417.26</v>
+        <v>2827.9</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2085,10 +2086,10 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>8.56</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="32">
@@ -2128,11 +2129,11 @@
     </row>
     <row r="33">
       <c r="A33" s="101" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2141,13 +2142,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1409.5</v>
+        <v>1407.3</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>7097.51</v>
+        <v>1417.26</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2155,19 +2156,19 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>43.01</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="101" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2179,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1357.6</v>
+        <v>1409.5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>6836.07</v>
+        <v>7097.51</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2190,15 +2191,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>41.32</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="101" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2211,13 +2212,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1351.8</v>
+        <v>1357.6</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2722.77</v>
+        <v>6836.07</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2225,15 +2226,15 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>2.7</v>
+        <v>6.75</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>16.47</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="101" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
@@ -2249,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1416.8</v>
+        <v>1351.8</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2853.65</v>
+        <v>2722.77</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2260,19 +2261,19 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>17.23</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="101" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -2281,13 +2282,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1404.2</v>
+        <v>1416.8</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1414.14</v>
+        <v>2853.65</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2295,10 +2296,10 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>8.539999999999999</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="38">
@@ -2316,13 +2317,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1404.6</v>
+        <v>1404.2</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2829.11</v>
+        <v>1414.14</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2330,19 +2331,19 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>17.11</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="101" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -2351,13 +2352,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1402.8</v>
+        <v>1404.6</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1412.74</v>
+        <v>2829.11</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2365,10 +2366,10 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="40">
@@ -2389,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1402.7</v>
+        <v>1402.8</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1412.63</v>
+        <v>1412.74</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2403,16 +2404,16 @@
         <v>1.41</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>8.52</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="101" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -2421,13 +2422,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1419.85</v>
+        <v>1402.7</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>7149.61</v>
+        <v>1412.63</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2435,15 +2436,15 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>7.07</v>
+        <v>1.41</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>43.29</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="101" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
@@ -2459,10 +2460,10 @@
         <v>5</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1403.05</v>
+        <v>1419.85</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>7065.05</v>
+        <v>7149.61</v>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
@@ -2470,19 +2471,19 @@
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>7.01</v>
+        <v>7.07</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>42.79</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="101" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
@@ -2491,13 +2492,13 @@
         </is>
       </c>
       <c r="D43" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1402.9</v>
+        <v>1403.05</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>5651.36</v>
+        <v>7065.05</v>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
@@ -2505,10 +2506,10 @@
         </is>
       </c>
       <c r="H43" s="0" t="n">
-        <v>5.62</v>
+        <v>7.01</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>34.14</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="44">
@@ -2526,13 +2527,13 @@
         </is>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1402.8</v>
+        <v>1402.9</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1412.72</v>
+        <v>5651.36</v>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
@@ -2540,113 +2541,50 @@
         </is>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1.4</v>
+        <v>5.62</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>8.52</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B45" s="39" t="inlineStr">
+      <c r="A45" s="101" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C45" s="39" t="inlineStr">
+      <c r="C45" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D45" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" s="41" t="n">
-        <v>1413.01</v>
-      </c>
-      <c r="F45" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G45" s="39" t="inlineStr">
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1402.8</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1412.72</v>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="40" t="n"/>
-      <c r="I45" s="40" t="n"/>
-      <c r="J45" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K45" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L45" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P45" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T45" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="47" t="n"/>
-      <c r="X45" s="47" t="n"/>
-      <c r="Y45" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="47" t="n"/>
-      <c r="AA45" s="47" t="n"/>
-      <c r="AB45" s="48" t="n"/>
-      <c r="AC45" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="49" t="n"/>
+      <c r="H45" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B46" s="39" t="inlineStr">
         <is>
@@ -2662,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="E46" s="41" t="n">
-        <v>1412.72</v>
+        <v>1413.01</v>
       </c>
       <c r="F46" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G46" s="39" t="inlineStr">
@@ -2680,75 +2618,75 @@
         <v/>
       </c>
       <c r="K46" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L46" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M46" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N46" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O46" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P46" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R46" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S46" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T46" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U46" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V46" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W46" s="47" t="n"/>
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z46" s="47" t="n"/>
       <c r="AA46" s="47" t="n"/>
       <c r="AB46" s="48" t="n"/>
       <c r="AC46" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD46" s="49" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="38" t="n">
-        <v>45874</v>
+        <v>45947</v>
       </c>
       <c r="B47" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" s="39" t="inlineStr">
@@ -2757,99 +2695,96 @@
         </is>
       </c>
       <c r="D47" s="40" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E47" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" s="41" t="n">
-        <v>100</v>
+        <v>1412.72</v>
+      </c>
+      <c r="F47" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G47" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H47" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H47" s="40" t="n"/>
+      <c r="I47" s="40" t="n"/>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L47" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M47" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N47" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O47" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P47" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R47" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S47" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T47" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U47" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V47" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W47" s="47" t="n"/>
       <c r="X47" s="47" t="n"/>
       <c r="Y47" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z47" s="47" t="n"/>
       <c r="AA47" s="47" t="n"/>
       <c r="AB47" s="48" t="n"/>
       <c r="AC47" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD47" s="49" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="38" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="B48" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C48" s="39" t="inlineStr">
@@ -2858,88 +2793,88 @@
         </is>
       </c>
       <c r="D48" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E48" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E48" s="41" t="n">
-        <v>1467.02</v>
-      </c>
       <c r="F48" s="41" t="n">
-        <v>5868.08</v>
+        <v>100</v>
       </c>
       <c r="G48" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
         </is>
       </c>
       <c r="H48" s="40" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="I48" s="40" t="n">
-        <v>35.46</v>
+        <v>0</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L48" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M48" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N48" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O48" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P48" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R48" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S48" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T48" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U48" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V48" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W48" s="47" t="n"/>
       <c r="X48" s="47" t="n"/>
       <c r="Y48" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z48" s="47" t="n"/>
       <c r="AA48" s="47" t="n"/>
       <c r="AB48" s="48" t="n"/>
       <c r="AC48" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD48" s="49" t="n"/>
@@ -2959,13 +2894,13 @@
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>1467.12</v>
+        <v>1467.02</v>
       </c>
       <c r="F49" s="41" t="n">
-        <v>1467.12</v>
+        <v>5868.08</v>
       </c>
       <c r="G49" s="39" t="inlineStr">
         <is>
@@ -2973,175 +2908,175 @@
         </is>
       </c>
       <c r="H49" s="40" t="n">
-        <v>1.46</v>
+        <v>5.82</v>
       </c>
       <c r="I49" s="40" t="n">
-        <v>8.859999999999999</v>
+        <v>35.46</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L49" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M49" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N49" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O49" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P49" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R49" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S49" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T49" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U49" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V49" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W49" s="47" t="n"/>
       <c r="X49" s="47" t="n"/>
       <c r="Y49" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z49" s="47" t="n"/>
       <c r="AA49" s="47" t="n"/>
       <c r="AB49" s="48" t="n"/>
       <c r="AC49" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD49" s="49" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B50" s="51" t="inlineStr">
+      <c r="A50" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B50" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C50" s="51" t="inlineStr">
+      <c r="C50" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D50" s="52" t="n">
+      <c r="D50" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F50" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G50" s="51" t="inlineStr">
+      <c r="E50" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="F50" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="G50" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I50" s="52" t="n">
-        <v>7.82</v>
+      <c r="H50" s="40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I50" s="40" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
@@ -3185,64 +3120,64 @@
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
@@ -3262,13 +3197,13 @@
         </is>
       </c>
       <c r="D52" s="52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="53" t="n">
         <v>1296.01</v>
       </c>
       <c r="F52" s="53" t="n">
-        <v>3888.03</v>
+        <v>1296.01</v>
       </c>
       <c r="G52" s="51" t="inlineStr">
         <is>
@@ -3276,81 +3211,81 @@
         </is>
       </c>
       <c r="H52" s="52" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I52" s="52" t="n">
-        <v>23.48</v>
+        <v>7.82</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="50" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B53" s="51" t="inlineStr">
         <is>
@@ -3363,13 +3298,13 @@
         </is>
       </c>
       <c r="D53" s="52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="53" t="n">
-        <v>1437.12</v>
+        <v>1296.01</v>
       </c>
       <c r="F53" s="53" t="n">
-        <v>7185.59</v>
+        <v>3888.03</v>
       </c>
       <c r="G53" s="51" t="inlineStr">
         <is>
@@ -3377,81 +3312,81 @@
         </is>
       </c>
       <c r="H53" s="52" t="n">
-        <v>7.13</v>
+        <v>3.85</v>
       </c>
       <c r="I53" s="52" t="n">
-        <v>43.46</v>
+        <v>23.48</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
@@ -3464,13 +3399,13 @@
         </is>
       </c>
       <c r="D54" s="52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="53" t="n">
-        <v>1362.48</v>
+        <v>1437.12</v>
       </c>
       <c r="F54" s="53" t="n">
-        <v>8174.89</v>
+        <v>7185.59</v>
       </c>
       <c r="G54" s="51" t="inlineStr">
         <is>
@@ -3478,81 +3413,81 @@
         </is>
       </c>
       <c r="H54" s="52" t="n">
-        <v>8.109999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>49.38</v>
+        <v>43.46</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -3565,13 +3500,13 @@
         </is>
       </c>
       <c r="D55" s="52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E55" s="53" t="n">
-        <v>1383.59</v>
+        <v>1362.48</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>2767.17</v>
+        <v>8174.89</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -3579,81 +3514,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>2.75</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>16.72</v>
+        <v>49.38</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -3669,10 +3604,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="53" t="n">
-        <v>1398.44</v>
+        <v>1383.59</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>2796.88</v>
+        <v>2767.17</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -3680,81 +3615,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>16.91</v>
+        <v>16.72</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>45307</v>
+        <v>45694</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -3763,17 +3698,17 @@
       </c>
       <c r="C57" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D57" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="53" t="n">
-        <v>658.4</v>
+        <v>1398.44</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>3292</v>
+        <v>2796.88</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -3781,190 +3716,182 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>3.29</v>
+        <v>2.77</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>19.71</v>
+        <v>16.91</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L57" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M57" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N57" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O57" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P57" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R57" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S57" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T57" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U57" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V57" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W57" s="47" t="n"/>
       <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z57" s="47" t="n"/>
       <c r="AA57" s="47" t="n"/>
       <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="54" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B58" s="55" t="inlineStr">
+      <c r="A58" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B58" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C58" s="55" t="inlineStr">
+      <c r="C58" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D58" s="57" t="n">
+      <c r="D58" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="42" t="n">
-        <v>450.95</v>
-      </c>
-      <c r="F58" s="42" t="n">
-        <v>2270.75</v>
-      </c>
-      <c r="G58" s="57" t="inlineStr">
+      <c r="E58" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="F58" s="53" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G58" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H58" s="57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I58" s="57" t="n">
-        <v>13.73</v>
+      <c r="H58" s="52" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I58" s="52" t="n">
+        <v>19.71</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K58" s="47" t="n"/>
-      <c r="L58" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N58" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O58" s="58" t="n"/>
-      <c r="P58" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S58" s="58" t="n"/>
-      <c r="T58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V58" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W58" s="53" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="X58" s="50" t="n">
-        <v>45307</v>
-      </c>
+      <c r="K58" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L58" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M58" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N58" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O58" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P58" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R58" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S58" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T58" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U58" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V58" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W58" s="47" t="n"/>
+      <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z58" s="60">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA58" s="60">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB58" s="61">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z58" s="47" t="n"/>
+      <c r="AA58" s="47" t="n"/>
+      <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD58" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD58" s="49" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="54" t="n">
-        <v>44239</v>
+        <v>45225</v>
       </c>
       <c r="B59" s="55" t="inlineStr">
         <is>
@@ -3973,17 +3900,17 @@
       </c>
       <c r="C59" s="55" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D59" s="57" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E59" s="42" t="n">
-        <v>217.931</v>
+        <v>450.95</v>
       </c>
       <c r="F59" s="42" t="n">
-        <v>26336.62</v>
+        <v>2270.75</v>
       </c>
       <c r="G59" s="57" t="inlineStr">
         <is>
@@ -3991,10 +3918,10 @@
         </is>
       </c>
       <c r="H59" s="57" t="n">
-        <v>26.54</v>
+        <v>2.27</v>
       </c>
       <c r="I59" s="57" t="n">
-        <v>158.14</v>
+        <v>13.73</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
@@ -4002,54 +3929,67 @@
       </c>
       <c r="K59" s="47" t="n"/>
       <c r="L59" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N59" s="59">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O59" s="58" t="n"/>
       <c r="P59" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S59" s="58" t="n"/>
       <c r="T59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V59" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="47" t="n"/>
-      <c r="X59" s="47" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="X59" s="50" t="n">
+        <v>45307</v>
+      </c>
       <c r="Y59" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="47" t="n"/>
-      <c r="AA59" s="47" t="n"/>
-      <c r="AB59" s="48" t="n"/>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="60">
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
+        <v/>
+      </c>
+      <c r="AA59" s="60">
+        <f>((E18*D18)+Z18)</f>
+        <v/>
+      </c>
+      <c r="AB59" s="61">
+        <f>D18</f>
+        <v/>
+      </c>
       <c r="AC59" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD59" s="62" t="inlineStr">
@@ -4060,7 +4000,7 @@
     </row>
     <row r="60">
       <c r="A60" s="54" t="n">
-        <v>44214</v>
+        <v>44239</v>
       </c>
       <c r="B60" s="55" t="inlineStr">
         <is>
@@ -4069,17 +4009,17 @@
       </c>
       <c r="C60" s="55" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D60" s="57" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E60" s="42" t="n">
-        <v>204.249</v>
+        <v>217.931</v>
       </c>
       <c r="F60" s="42" t="n">
-        <v>2056.51</v>
+        <v>26336.62</v>
       </c>
       <c r="G60" s="57" t="inlineStr">
         <is>
@@ -4087,78 +4027,65 @@
         </is>
       </c>
       <c r="H60" s="57" t="n">
-        <v>1.59</v>
+        <v>26.54</v>
       </c>
       <c r="I60" s="57" t="n">
-        <v>12.42</v>
+        <v>158.14</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K60" s="42" t="n"/>
-      <c r="L60" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
-        <v/>
-      </c>
-      <c r="M60" s="63">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="N60" s="64">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O60" s="42" t="n"/>
-      <c r="P60" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="Q60" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="R60" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+      <c r="K60" s="47" t="n"/>
+      <c r="L60" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="59">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="58" t="n"/>
+      <c r="P60" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S60" s="58" t="n"/>
       <c r="T60" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U60" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V60" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W60" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X60" s="54" t="n">
-        <v>44239</v>
-      </c>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W60" s="47" t="n"/>
+      <c r="X60" s="47" t="n"/>
       <c r="Y60" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z60" s="60">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
-        <v/>
-      </c>
-      <c r="AA60" s="60">
-        <f>((E20*D20)+Z20)</f>
-        <v/>
-      </c>
-      <c r="AB60" s="61">
-        <f>D20</f>
-        <v/>
-      </c>
-      <c r="AC60" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z60" s="47" t="n"/>
+      <c r="AA60" s="47" t="n"/>
+      <c r="AB60" s="48" t="n"/>
+      <c r="AC60" s="44">
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD60" s="62" t="inlineStr">
@@ -4169,7 +4096,7 @@
     </row>
     <row r="61">
       <c r="A61" s="54" t="n">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B61" s="55" t="inlineStr">
         <is>
@@ -4185,10 +4112,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="42" t="n">
-        <v>206.996</v>
+        <v>204.249</v>
       </c>
       <c r="F61" s="42" t="n">
-        <v>2084.34</v>
+        <v>2056.51</v>
       </c>
       <c r="G61" s="57" t="inlineStr">
         <is>
@@ -4196,10 +4123,10 @@
         </is>
       </c>
       <c r="H61" s="57" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="I61" s="57" t="n">
-        <v>12.6</v>
+        <v>12.42</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
@@ -4207,41 +4134,41 @@
       </c>
       <c r="K61" s="42" t="n"/>
       <c r="L61" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
         <v/>
       </c>
       <c r="M61" s="63">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
         <v/>
       </c>
       <c r="N61" s="64">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O61" s="42" t="n"/>
       <c r="P61" s="42">
-        <f>if(C21="DIV", G21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="Q61" s="65">
-        <f>if(D21="DIV", H21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="R61" s="65">
-        <f>if(E21="DIV", I21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S61" s="58" t="n"/>
       <c r="T61" s="58">
-        <f>if(G21="DIV", N21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="U61" s="58">
-        <f>if(H21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="V61" s="58">
-        <f>if(I21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W61" s="42" t="n">
@@ -4251,23 +4178,23 @@
         <v>44239</v>
       </c>
       <c r="Y61" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
         <v/>
       </c>
       <c r="AA61" s="60">
-        <f>((E21*D21)+Z21)</f>
+        <f>((E20*D20)+Z20)</f>
         <v/>
       </c>
       <c r="AB61" s="61">
-        <f>D21</f>
+        <f>D20</f>
         <v/>
       </c>
       <c r="AC61" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD61" s="62" t="inlineStr">
@@ -4278,7 +4205,7 @@
     </row>
     <row r="62">
       <c r="A62" s="54" t="n">
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="B62" s="55" t="inlineStr">
         <is>
@@ -4291,13 +4218,13 @@
         </is>
       </c>
       <c r="D62" s="57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E62" s="42" t="n">
-        <v>204.745</v>
+        <v>206.996</v>
       </c>
       <c r="F62" s="42" t="n">
-        <v>10308.25</v>
+        <v>2084.34</v>
       </c>
       <c r="G62" s="57" t="inlineStr">
         <is>
@@ -4305,10 +4232,10 @@
         </is>
       </c>
       <c r="H62" s="57" t="n">
-        <v>9.5</v>
+        <v>1.74</v>
       </c>
       <c r="I62" s="57" t="n">
-        <v>61.25</v>
+        <v>12.6</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
@@ -4316,41 +4243,41 @@
       </c>
       <c r="K62" s="42" t="n"/>
       <c r="L62" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
         <v/>
       </c>
       <c r="M62" s="63">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
         <v/>
       </c>
       <c r="N62" s="64">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O62" s="42" t="n"/>
       <c r="P62" s="42">
-        <f>if(C22="DIV", G22,"")</f>
+        <f>if(C21="DIV", G21,"")</f>
         <v/>
       </c>
       <c r="Q62" s="65">
-        <f>if(D22="DIV", H22,"")</f>
+        <f>if(D21="DIV", H21,"")</f>
         <v/>
       </c>
       <c r="R62" s="65">
-        <f>if(E22="DIV", I22,"")</f>
+        <f>if(E21="DIV", I21,"")</f>
         <v/>
       </c>
       <c r="S62" s="58" t="n"/>
       <c r="T62" s="58">
-        <f>if(G22="DIV", N22,"")</f>
+        <f>if(G21="DIV", N21,"")</f>
         <v/>
       </c>
       <c r="U62" s="58">
-        <f>if(H22="DIV", #REF!,"")</f>
+        <f>if(H21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V62" s="58">
-        <f>if(I22="DIV", #REF!,"")</f>
+        <f>if(I21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W62" s="42" t="n">
@@ -4360,23 +4287,23 @@
         <v>44239</v>
       </c>
       <c r="Y62" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z62" s="60">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
         <v/>
       </c>
       <c r="AA62" s="60">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E21*D21)+Z21)</f>
         <v/>
       </c>
       <c r="AB62" s="61">
-        <f>D22</f>
+        <f>D21</f>
         <v/>
       </c>
       <c r="AC62" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD62" s="62" t="inlineStr">
@@ -4387,7 +4314,7 @@
     </row>
     <row r="63">
       <c r="A63" s="54" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B63" s="55" t="inlineStr">
         <is>
@@ -4403,10 +4330,10 @@
         <v>50</v>
       </c>
       <c r="E63" s="42" t="n">
-        <v>203.9548</v>
+        <v>204.745</v>
       </c>
       <c r="F63" s="42" t="n">
-        <v>10268.26</v>
+        <v>10308.25</v>
       </c>
       <c r="G63" s="57" t="inlineStr">
         <is>
@@ -4414,10 +4341,10 @@
         </is>
       </c>
       <c r="H63" s="57" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="I63" s="57" t="n">
-        <v>61.27</v>
+        <v>61.25</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
@@ -4425,41 +4352,41 @@
       </c>
       <c r="K63" s="42" t="n"/>
       <c r="L63" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
         <v/>
       </c>
       <c r="M63" s="63">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
         <v/>
       </c>
       <c r="N63" s="64">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O63" s="42" t="n"/>
       <c r="P63" s="42">
-        <f>if(C23="DIV", G23,"")</f>
+        <f>if(C22="DIV", G22,"")</f>
         <v/>
       </c>
       <c r="Q63" s="65">
-        <f>if(D23="DIV", H23,"")</f>
+        <f>if(D22="DIV", H22,"")</f>
         <v/>
       </c>
       <c r="R63" s="65">
-        <f>if(E23="DIV", I23,"")</f>
+        <f>if(E22="DIV", I22,"")</f>
         <v/>
       </c>
       <c r="S63" s="58" t="n"/>
       <c r="T63" s="58">
-        <f>if(G23="DIV", N23,"")</f>
+        <f>if(G22="DIV", N22,"")</f>
         <v/>
       </c>
       <c r="U63" s="58">
-        <f>if(H23="DIV", #REF!,"")</f>
+        <f>if(H22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V63" s="58">
-        <f>if(I23="DIV", #REF!,"")</f>
+        <f>if(I22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W63" s="42" t="n">
@@ -4469,23 +4396,23 @@
         <v>44239</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z63" s="60">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
         <v/>
       </c>
       <c r="AA63" s="60">
-        <f>((E23*D23)+Z23)</f>
+        <f>((E22*D22)+Z22)</f>
         <v/>
       </c>
       <c r="AB63" s="61">
-        <f>D23</f>
+        <f>D22</f>
         <v/>
       </c>
       <c r="AC63" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD63" s="62" t="inlineStr">
@@ -4495,20 +4422,113 @@
       </c>
     </row>
     <row r="64">
-      <c r="E64" s="66" t="n"/>
-      <c r="F64" s="66" t="n"/>
-      <c r="G64" s="67" t="n"/>
-      <c r="J64" s="66" t="n"/>
-      <c r="K64" s="66" t="n"/>
-      <c r="L64" s="66" t="n"/>
-      <c r="M64" s="69" t="n"/>
-      <c r="W64" s="66" t="n"/>
-      <c r="X64" s="66" t="n"/>
-      <c r="Y64" s="66" t="n"/>
-      <c r="Z64" s="66" t="n"/>
-      <c r="AA64" s="66" t="n"/>
-      <c r="AB64" s="66" t="n"/>
-      <c r="AC64" s="66" t="n"/>
+      <c r="A64" s="54" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B64" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C64" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E64" s="42" t="n">
+        <v>203.9548</v>
+      </c>
+      <c r="F64" s="42" t="n">
+        <v>10268.26</v>
+      </c>
+      <c r="G64" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" s="57" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I64" s="57" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="J64" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K64" s="42" t="n"/>
+      <c r="L64" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="63">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <v/>
+      </c>
+      <c r="N64" s="64">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O64" s="42" t="n"/>
+      <c r="P64" s="42">
+        <f>if(C23="DIV", G23,"")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="65">
+        <f>if(D23="DIV", H23,"")</f>
+        <v/>
+      </c>
+      <c r="R64" s="65">
+        <f>if(E23="DIV", I23,"")</f>
+        <v/>
+      </c>
+      <c r="S64" s="58" t="n"/>
+      <c r="T64" s="58">
+        <f>if(G23="DIV", N23,"")</f>
+        <v/>
+      </c>
+      <c r="U64" s="58">
+        <f>if(H23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V64" s="58">
+        <f>if(I23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W64" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X64" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y64" s="46">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="60">
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <v/>
+      </c>
+      <c r="AA64" s="60">
+        <f>((E23*D23)+Z23)</f>
+        <v/>
+      </c>
+      <c r="AB64" s="61">
+        <f>D23</f>
+        <v/>
+      </c>
+      <c r="AC64" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="E65" s="66" t="n"/>
@@ -20101,6 +20121,7 @@
       <c r="J1039" s="66" t="n"/>
       <c r="K1039" s="66" t="n"/>
       <c r="L1039" s="66" t="n"/>
+      <c r="M1039" s="69" t="n"/>
       <c r="W1039" s="66" t="n"/>
       <c r="X1039" s="66" t="n"/>
       <c r="Y1039" s="66" t="n"/>
@@ -20348,6 +20369,21 @@
       <c r="AA1055" s="66" t="n"/>
       <c r="AB1055" s="66" t="n"/>
       <c r="AC1055" s="66" t="n"/>
+    </row>
+    <row r="1056">
+      <c r="E1056" s="66" t="n"/>
+      <c r="F1056" s="66" t="n"/>
+      <c r="G1056" s="67" t="n"/>
+      <c r="J1056" s="66" t="n"/>
+      <c r="K1056" s="66" t="n"/>
+      <c r="L1056" s="66" t="n"/>
+      <c r="W1056" s="66" t="n"/>
+      <c r="X1056" s="66" t="n"/>
+      <c r="Y1056" s="66" t="n"/>
+      <c r="Z1056" s="66" t="n"/>
+      <c r="AA1056" s="66" t="n"/>
+      <c r="AB1056" s="66" t="n"/>
+      <c r="AC1056" s="66" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$92"/>

--- a/dumps/Stocks/Va Tech Wabag Ltd.xlsx
+++ b/dumps/Stocks/Va Tech Wabag Ltd.xlsx
@@ -794,7 +794,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1056"/>
+  <dimension ref="A1:AP1060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="5">
       <c r="A5" s="102" t="n">
-        <v>45974</v>
+        <v>46014</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1159,21 +1159,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1407.3</v>
+        <v>1307</v>
       </c>
       <c r="F5" t="n">
-        <v>2828.68</v>
+        <v>3940.62</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>14.08</v>
+        <v>19.62</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="6">
       <c r="A6" s="102" t="n">
-        <v>45959</v>
+        <v>46009</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1195,21 +1195,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1404.46666667</v>
+        <v>1282.1125</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4234.46</v>
+        <v>5154.09</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>21.06</v>
+        <v>25.64</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="7">
       <c r="A7" s="102" t="n">
-        <v>45957</v>
+        <v>46000</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1402.75</v>
+        <v>1309.7</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2819.52</v>
+        <v>3948.75</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>14.02</v>
+        <v>19.65</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1253,8 +1253,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="101" t="n">
-        <v>46050</v>
+      <c r="A8" s="102" t="n">
+        <v>45989</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1270,26 +1270,27 @@
         <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1075.5</v>
+        <v>1369.8</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3249.4</v>
+        <v>4129.95</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I8" s="0" t="n">
-        <v>19.65</v>
+        <v>20.55</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="101" t="n">
-        <v>46049</v>
+      <c r="A9" s="102" t="n">
+        <v>45974</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1302,33 +1303,34 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1052.3</v>
+        <v>1407.3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7418.29</v>
+        <v>2828.68</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>7.35</v>
-      </c>
       <c r="I9" s="0" t="n">
-        <v>44.84</v>
+        <v>14.08</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="101" t="n">
-        <v>46038</v>
+      <c r="A10" s="102" t="n">
+        <v>45959</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1340,26 +1342,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1195</v>
+        <v>1404.46666667</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3610.41</v>
+        <v>4234.46</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>3.59</v>
-      </c>
       <c r="I10" s="0" t="n">
-        <v>21.82</v>
+        <v>21.06</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="101" t="n">
-        <v>46034</v>
+      <c r="A11" s="102" t="n">
+        <v>45957</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1372,29 +1375,30 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1188.1</v>
+        <v>1402.75</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5982.6</v>
+        <v>2819.52</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>5.95</v>
-      </c>
       <c r="I11" s="0" t="n">
-        <v>36.15</v>
+        <v>14.02</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="101" t="n">
-        <v>46027</v>
+        <v>46050</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1410,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1291.6</v>
+        <v>1075.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3902.25</v>
+        <v>3249.4</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1421,19 +1425,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.86</v>
+        <v>3.25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>23.59</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="101" t="n">
-        <v>46024</v>
+        <v>46049</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1442,13 +1446,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1294.6</v>
+        <v>1052.3</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3911.38</v>
+        <v>7418.29</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1456,19 +1460,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.86</v>
+        <v>7.35</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>23.72</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="101" t="n">
-        <v>46020</v>
+        <v>46038</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1477,13 +1481,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1276.55</v>
+        <v>1195</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5142.49</v>
+        <v>3610.41</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1491,15 +1495,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>5.13</v>
+        <v>3.59</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>31.16</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="101" t="n">
-        <v>46015</v>
+        <v>46034</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1512,13 +1516,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1286.8</v>
+        <v>1188.1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3887.74</v>
+        <v>5982.6</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1526,15 +1530,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3.84</v>
+        <v>5.95</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>23.5</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="101" t="n">
-        <v>46014</v>
+        <v>46027</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1547,13 +1551,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1307</v>
+        <v>1291.6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1316.26</v>
+        <v>3902.25</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1561,19 +1565,19 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.3</v>
+        <v>3.86</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>7.96</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="101" t="n">
-        <v>46014</v>
+        <v>46024</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1582,13 +1586,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1307</v>
+        <v>1294.6</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2632.53</v>
+        <v>3911.38</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1596,15 +1600,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>2.6</v>
+        <v>3.86</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>15.93</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="101" t="n">
-        <v>46009</v>
+        <v>46020</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1617,13 +1621,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1282.1</v>
+        <v>1276.55</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3873.58</v>
+        <v>5142.49</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1631,19 +1635,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.86</v>
+        <v>5.13</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>23.42</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="101" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1652,13 +1656,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1282.15</v>
+        <v>1286.8</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1291.24</v>
+        <v>3887.74</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1666,15 +1670,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.28</v>
+        <v>3.84</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>7.81</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="101" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1687,13 +1691,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1303.1</v>
+        <v>1307</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6561.71</v>
+        <v>1316.26</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1701,19 +1705,19 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>39.71</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="101" t="n">
-        <v>46002</v>
+        <v>46014</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1722,13 +1726,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1264.75</v>
+        <v>1307</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6368.6</v>
+        <v>2632.53</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1736,19 +1740,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>6.34</v>
+        <v>2.6</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>38.51</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="101" t="n">
-        <v>46000</v>
+        <v>46009</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1757,13 +1761,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1309.7</v>
+        <v>1282.1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1318.98</v>
+        <v>3873.58</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1771,19 +1775,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.31</v>
+        <v>3.86</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>7.97</v>
+        <v>23.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="101" t="n">
-        <v>46000</v>
+        <v>46009</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1792,13 +1796,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1309.7</v>
+        <v>1282.15</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2637.97</v>
+        <v>1291.24</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1806,19 +1810,19 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2.61</v>
+        <v>1.28</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>15.96</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="101" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1827,13 +1831,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1376.8</v>
+        <v>1303.1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4159.68</v>
+        <v>6561.71</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1841,19 +1845,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>4.11</v>
+        <v>6.5</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>25.17</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="101" t="n">
-        <v>45993</v>
+        <v>46002</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1862,13 +1866,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1376.3</v>
+        <v>1264.75</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4158.17</v>
+        <v>6368.6</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1876,15 +1880,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>4.16</v>
+        <v>6.34</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25.11</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="101" t="n">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1897,13 +1901,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1369.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2759.04</v>
+        <v>1318.98</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1911,15 +1915,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>2.74</v>
+        <v>1.31</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>16.7</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="101" t="n">
-        <v>45989</v>
+        <v>46000</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1932,13 +1936,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1369.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1379.52</v>
+        <v>2637.97</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1946,15 +1950,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.37</v>
+        <v>2.61</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>8.35</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="101" t="n">
-        <v>45981</v>
+        <v>45996</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1967,13 +1971,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1433.55</v>
+        <v>1376.8</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2887.45</v>
+        <v>4159.68</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1981,19 +1985,19 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>2.85</v>
+        <v>4.11</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>17.5</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="101" t="n">
-        <v>45979</v>
+        <v>45993</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
@@ -2005,10 +2009,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1404.35</v>
+        <v>1376.3</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>4242.94</v>
+        <v>4158.17</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -2016,15 +2020,15 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>25.67</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="101" t="n">
-        <v>45978</v>
+        <v>45989</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2040,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1413.5</v>
+        <v>1369.8</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2847.04</v>
+        <v>2759.04</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2051,15 +2055,15 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="101" t="n">
-        <v>45975</v>
+        <v>45989</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2072,13 +2076,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1404</v>
+        <v>1369.8</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2827.9</v>
+        <v>1379.52</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2086,19 +2090,19 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>2.82</v>
+        <v>1.37</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>17.08</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="101" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
@@ -2107,13 +2111,13 @@
         </is>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1407.3</v>
+        <v>1433.55</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1417.26</v>
+        <v>2887.45</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
@@ -2121,19 +2125,19 @@
         </is>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.4</v>
+        <v>2.85</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>8.56</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="101" t="n">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
@@ -2142,13 +2146,13 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1407.3</v>
+        <v>1404.35</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1417.26</v>
+        <v>4242.94</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
@@ -2156,19 +2160,19 @@
         </is>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.4</v>
+        <v>4.22</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>8.56</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="101" t="n">
-        <v>45972</v>
+        <v>45978</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2177,13 +2181,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1409.5</v>
+        <v>1413.5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>7097.51</v>
+        <v>2847.04</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2191,15 +2195,15 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>7</v>
+        <v>2.84</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>43.01</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="101" t="n">
-        <v>45971</v>
+        <v>45975</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
@@ -2212,13 +2216,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1357.6</v>
+        <v>1404</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>6836.07</v>
+        <v>2827.9</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2226,15 +2230,15 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>6.75</v>
+        <v>2.82</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>41.32</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="101" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
@@ -2247,13 +2251,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1351.8</v>
+        <v>1407.3</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2722.77</v>
+        <v>1417.26</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2261,15 +2265,15 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>16.47</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="101" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
@@ -2282,13 +2286,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1416.8</v>
+        <v>1407.3</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2853.65</v>
+        <v>1417.26</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2296,15 +2300,15 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>17.23</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="101" t="n">
-        <v>45959</v>
+        <v>45972</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
@@ -2317,13 +2321,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1404.2</v>
+        <v>1409.5</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1414.14</v>
+        <v>7097.51</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2331,19 +2335,19 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>8.539999999999999</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="101" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -2352,13 +2356,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1404.6</v>
+        <v>1357.6</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2829.11</v>
+        <v>6836.07</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2366,15 +2370,15 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>2.8</v>
+        <v>6.75</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>17.11</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="101" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
@@ -2387,13 +2391,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1402.8</v>
+        <v>1351.8</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1412.74</v>
+        <v>2722.77</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2401,15 +2405,15 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.41</v>
+        <v>2.7</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="101" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
@@ -2422,13 +2426,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1402.7</v>
+        <v>1416.8</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1412.63</v>
+        <v>2853.65</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2436,15 +2440,15 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1.41</v>
+        <v>2.82</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>8.52</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="101" t="n">
-        <v>45953</v>
+        <v>45959</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
@@ -2457,13 +2461,13 @@
         </is>
       </c>
       <c r="D42" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1419.85</v>
+        <v>1404.2</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>7149.61</v>
+        <v>1414.14</v>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
@@ -2471,15 +2475,15 @@
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>7.07</v>
+        <v>1.4</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>43.29</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="101" t="n">
-        <v>45950</v>
+        <v>45959</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
@@ -2492,13 +2496,13 @@
         </is>
       </c>
       <c r="D43" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1403.05</v>
+        <v>1404.6</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>7065.05</v>
+        <v>2829.11</v>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
@@ -2506,15 +2510,15 @@
         </is>
       </c>
       <c r="H43" s="0" t="n">
-        <v>7.01</v>
+        <v>2.8</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>42.79</v>
+        <v>17.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="101" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
@@ -2527,13 +2531,13 @@
         </is>
       </c>
       <c r="D44" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1402.9</v>
+        <v>1402.8</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>5651.36</v>
+        <v>1412.74</v>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
@@ -2541,15 +2545,15 @@
         </is>
       </c>
       <c r="H44" s="0" t="n">
-        <v>5.62</v>
+        <v>1.41</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>34.14</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="101" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
@@ -2565,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1402.8</v>
+        <v>1402.7</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1412.72</v>
+        <v>1412.63</v>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
@@ -2576,413 +2580,155 @@
         </is>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>8.52</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="38" t="n">
+      <c r="A46" s="101" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1419.85</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>7149.61</v>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>43.29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="101" t="n">
         <v>45950</v>
       </c>
-      <c r="B46" s="39" t="inlineStr">
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1403.05</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>7065.05</v>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>42.79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="101" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C46" s="39" t="inlineStr">
+      <c r="C48" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D46" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E46" s="41" t="n">
-        <v>1413.01</v>
-      </c>
-      <c r="F46" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G46" s="39" t="inlineStr">
+      <c r="D48" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1402.9</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>5651.36</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H46" s="40" t="n"/>
-      <c r="I46" s="40" t="n"/>
-      <c r="J46" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K46" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L46" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M46" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N46" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O46" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P46" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R46" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S46" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T46" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U46" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V46" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="47" t="n"/>
-      <c r="X46" s="47" t="n"/>
-      <c r="Y46" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="47" t="n"/>
-      <c r="AA46" s="47" t="n"/>
-      <c r="AB46" s="48" t="n"/>
-      <c r="AC46" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD46" s="49" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="38" t="n">
+      <c r="H48" s="0" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="101" t="n">
         <v>45947</v>
       </c>
-      <c r="B47" s="39" t="inlineStr">
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C47" s="39" t="inlineStr">
+      <c r="C49" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D47" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E47" s="41" t="n">
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1402.8</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>1412.72</v>
       </c>
-      <c r="F47" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G47" s="39" t="inlineStr">
+      <c r="G49" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H47" s="40" t="n"/>
-      <c r="I47" s="40" t="n"/>
-      <c r="J47" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K47" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L47" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P47" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S47" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T47" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U47" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V47" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="47" t="n"/>
-      <c r="X47" s="47" t="n"/>
-      <c r="Y47" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="47" t="n"/>
-      <c r="AA47" s="47" t="n"/>
-      <c r="AB47" s="48" t="n"/>
-      <c r="AC47" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD47" s="49" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="38" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B48" s="39" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C48" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D48" s="40" t="n">
-        <v>25</v>
-      </c>
-      <c r="E48" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" s="41" t="n">
-        <v>100</v>
-      </c>
-      <c r="G48" s="39" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
-        </is>
-      </c>
-      <c r="H48" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="47" t="n"/>
-      <c r="X48" s="47" t="n"/>
-      <c r="Y48" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="47" t="n"/>
-      <c r="AA48" s="47" t="n"/>
-      <c r="AB48" s="48" t="n"/>
-      <c r="AC48" s="44">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD48" s="49" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="38" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B49" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C49" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D49" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E49" s="41" t="n">
-        <v>1467.02</v>
-      </c>
-      <c r="F49" s="41" t="n">
-        <v>5868.08</v>
-      </c>
-      <c r="G49" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H49" s="40" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="I49" s="40" t="n">
-        <v>35.46</v>
-      </c>
-      <c r="J49" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="47" t="n"/>
-      <c r="X49" s="47" t="n"/>
-      <c r="Y49" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="47" t="n"/>
-      <c r="AA49" s="47" t="n"/>
-      <c r="AB49" s="48" t="n"/>
-      <c r="AC49" s="44">
-        <f>if(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD49" s="49" t="n"/>
+      <c r="H49" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45855</v>
+        <v>45950</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -2995,499 +2741,493 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>1467.12</v>
-      </c>
-      <c r="F50" s="41" t="n">
-        <v>1467.12</v>
+        <v>1413.01</v>
+      </c>
+      <c r="F50" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G50" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I50" s="40" t="n">
-        <v>8.859999999999999</v>
-      </c>
+      <c r="H50" s="40" t="n"/>
+      <c r="I50" s="40" t="n"/>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L50" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M50" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N50" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O50" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P50" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R50" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S50" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T50" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U50" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V50" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W50" s="47" t="n"/>
       <c r="X50" s="47" t="n"/>
       <c r="Y50" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z50" s="47" t="n"/>
       <c r="AA50" s="47" t="n"/>
       <c r="AB50" s="48" t="n"/>
       <c r="AC50" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD50" s="49" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B51" s="51" t="inlineStr">
+      <c r="A51" s="38" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B51" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C51" s="51" t="inlineStr">
+      <c r="C51" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D51" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F51" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G51" s="51" t="inlineStr">
+      <c r="D51" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="41" t="n">
+        <v>1412.72</v>
+      </c>
+      <c r="F51" s="41">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+      <c r="G51" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H51" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I51" s="52" t="n">
-        <v>7.82</v>
-      </c>
+      <c r="H51" s="40" t="n"/>
+      <c r="I51" s="40" t="n"/>
       <c r="J51" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L51" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M51" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N51" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O51" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P51" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R51" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S51" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T51" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U51" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V51" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W51" s="47" t="n"/>
       <c r="X51" s="47" t="n"/>
       <c r="Y51" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z51" s="47" t="n"/>
       <c r="AA51" s="47" t="n"/>
       <c r="AB51" s="48" t="n"/>
       <c r="AC51" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD51" s="49" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B52" s="51" t="inlineStr">
+      <c r="A52" s="38" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B52" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
-      <c r="C52" s="51" t="inlineStr">
+      <c r="C52" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D52" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F52" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G52" s="51" t="inlineStr">
+      <c r="D52" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E52" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" s="41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
         </is>
       </c>
-      <c r="H52" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I52" s="52" t="n">
-        <v>7.82</v>
+      <c r="H52" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="40" t="n">
+        <v>0</v>
       </c>
       <c r="J52" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L52" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M52" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N52" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O52" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P52" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R52" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S52" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T52" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U52" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V52" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W52" s="47" t="n"/>
       <c r="X52" s="47" t="n"/>
       <c r="Y52" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z52" s="47" t="n"/>
       <c r="AA52" s="47" t="n"/>
       <c r="AB52" s="48" t="n"/>
       <c r="AC52" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD52" s="49" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B53" s="51" t="inlineStr">
+      <c r="A53" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B53" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C53" s="51" t="inlineStr">
+      <c r="C53" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D53" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F53" s="53" t="n">
-        <v>3888.03</v>
-      </c>
-      <c r="G53" s="51" t="inlineStr">
+      <c r="D53" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="41" t="n">
+        <v>1467.02</v>
+      </c>
+      <c r="F53" s="41" t="n">
+        <v>5868.08</v>
+      </c>
+      <c r="G53" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H53" s="52" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I53" s="52" t="n">
-        <v>23.48</v>
+      <c r="H53" s="40" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="I53" s="40" t="n">
+        <v>35.46</v>
       </c>
       <c r="J53" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L53" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M53" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N53" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O53" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P53" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R53" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S53" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T53" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U53" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V53" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W53" s="47" t="n"/>
       <c r="X53" s="47" t="n"/>
       <c r="Y53" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z53" s="47" t="n"/>
       <c r="AA53" s="47" t="n"/>
       <c r="AB53" s="48" t="n"/>
       <c r="AC53" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD53" s="49" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="50" t="n">
-        <v>45712</v>
-      </c>
-      <c r="B54" s="51" t="inlineStr">
+      <c r="A54" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B54" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C54" s="51" t="inlineStr">
+      <c r="C54" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D54" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="53" t="n">
-        <v>1437.12</v>
-      </c>
-      <c r="F54" s="53" t="n">
-        <v>7185.59</v>
-      </c>
-      <c r="G54" s="51" t="inlineStr">
+      <c r="D54" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="F54" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="G54" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H54" s="52" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="I54" s="52" t="n">
-        <v>43.46</v>
+      <c r="H54" s="40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I54" s="40" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="J54" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L54" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M54" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N54" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O54" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P54" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R54" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S54" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T54" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U54" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V54" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W54" s="47" t="n"/>
       <c r="X54" s="47" t="n"/>
       <c r="Y54" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z54" s="47" t="n"/>
       <c r="AA54" s="47" t="n"/>
       <c r="AB54" s="48" t="n"/>
       <c r="AC54" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD54" s="49" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="50" t="n">
-        <v>45705</v>
+        <v>45716</v>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
@@ -3500,13 +3240,13 @@
         </is>
       </c>
       <c r="D55" s="52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E55" s="53" t="n">
-        <v>1362.48</v>
+        <v>1296.01</v>
       </c>
       <c r="F55" s="53" t="n">
-        <v>8174.89</v>
+        <v>1296.01</v>
       </c>
       <c r="G55" s="51" t="inlineStr">
         <is>
@@ -3514,81 +3254,81 @@
         </is>
       </c>
       <c r="H55" s="52" t="n">
-        <v>8.109999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I55" s="52" t="n">
-        <v>49.38</v>
+        <v>7.82</v>
       </c>
       <c r="J55" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L55" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M55" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N55" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O55" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P55" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R55" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S55" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T55" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U55" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V55" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W55" s="47" t="n"/>
       <c r="X55" s="47" t="n"/>
       <c r="Y55" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z55" s="47" t="n"/>
       <c r="AA55" s="47" t="n"/>
       <c r="AB55" s="48" t="n"/>
       <c r="AC55" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD55" s="49" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="50" t="n">
-        <v>45699</v>
+        <v>45716</v>
       </c>
       <c r="B56" s="51" t="inlineStr">
         <is>
@@ -3601,13 +3341,13 @@
         </is>
       </c>
       <c r="D56" s="52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="53" t="n">
-        <v>1383.59</v>
+        <v>1296.01</v>
       </c>
       <c r="F56" s="53" t="n">
-        <v>2767.17</v>
+        <v>1296.01</v>
       </c>
       <c r="G56" s="51" t="inlineStr">
         <is>
@@ -3615,81 +3355,81 @@
         </is>
       </c>
       <c r="H56" s="52" t="n">
-        <v>2.75</v>
+        <v>1.29</v>
       </c>
       <c r="I56" s="52" t="n">
-        <v>16.72</v>
+        <v>7.82</v>
       </c>
       <c r="J56" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L56" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M56" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N56" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O56" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P56" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R56" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S56" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T56" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U56" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V56" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W56" s="47" t="n"/>
       <c r="X56" s="47" t="n"/>
       <c r="Y56" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z56" s="47" t="n"/>
       <c r="AA56" s="47" t="n"/>
       <c r="AB56" s="48" t="n"/>
       <c r="AC56" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD56" s="49" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="50" t="n">
-        <v>45694</v>
+        <v>45716</v>
       </c>
       <c r="B57" s="51" t="inlineStr">
         <is>
@@ -3702,13 +3442,13 @@
         </is>
       </c>
       <c r="D57" s="52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="53" t="n">
-        <v>1398.44</v>
+        <v>1296.01</v>
       </c>
       <c r="F57" s="53" t="n">
-        <v>2796.88</v>
+        <v>3888.03</v>
       </c>
       <c r="G57" s="51" t="inlineStr">
         <is>
@@ -3716,81 +3456,81 @@
         </is>
       </c>
       <c r="H57" s="52" t="n">
-        <v>2.77</v>
+        <v>3.85</v>
       </c>
       <c r="I57" s="52" t="n">
-        <v>16.91</v>
+        <v>23.48</v>
       </c>
       <c r="J57" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L57" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M57" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N57" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O57" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P57" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R57" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S57" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T57" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U57" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V57" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W57" s="47" t="n"/>
       <c r="X57" s="47" t="n"/>
       <c r="Y57" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z57" s="47" t="n"/>
       <c r="AA57" s="47" t="n"/>
       <c r="AB57" s="48" t="n"/>
       <c r="AC57" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD57" s="49" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="50" t="n">
-        <v>45307</v>
+        <v>45712</v>
       </c>
       <c r="B58" s="51" t="inlineStr">
         <is>
@@ -3799,17 +3539,17 @@
       </c>
       <c r="C58" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D58" s="52" t="n">
         <v>5</v>
       </c>
       <c r="E58" s="53" t="n">
-        <v>658.4</v>
+        <v>1437.12</v>
       </c>
       <c r="F58" s="53" t="n">
-        <v>3292</v>
+        <v>7185.59</v>
       </c>
       <c r="G58" s="51" t="inlineStr">
         <is>
@@ -3817,504 +3557,485 @@
         </is>
       </c>
       <c r="H58" s="52" t="n">
-        <v>3.29</v>
+        <v>7.13</v>
       </c>
       <c r="I58" s="52" t="n">
-        <v>19.71</v>
+        <v>43.46</v>
       </c>
       <c r="J58" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L58" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M58" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N58" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O58" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P58" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R58" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S58" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T58" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U58" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V58" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W58" s="47" t="n"/>
       <c r="X58" s="47" t="n"/>
       <c r="Y58" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z58" s="47" t="n"/>
       <c r="AA58" s="47" t="n"/>
       <c r="AB58" s="48" t="n"/>
       <c r="AC58" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD58" s="49" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="54" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B59" s="55" t="inlineStr">
+      <c r="A59" s="50" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B59" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C59" s="55" t="inlineStr">
+      <c r="C59" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D59" s="57" t="n">
-        <v>5</v>
-      </c>
-      <c r="E59" s="42" t="n">
-        <v>450.95</v>
-      </c>
-      <c r="F59" s="42" t="n">
-        <v>2270.75</v>
-      </c>
-      <c r="G59" s="57" t="inlineStr">
+      <c r="D59" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="53" t="n">
+        <v>1362.48</v>
+      </c>
+      <c r="F59" s="53" t="n">
+        <v>8174.89</v>
+      </c>
+      <c r="G59" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H59" s="57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I59" s="57" t="n">
-        <v>13.73</v>
+      <c r="H59" s="52" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="I59" s="52" t="n">
+        <v>49.38</v>
       </c>
       <c r="J59" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K59" s="47" t="n"/>
-      <c r="L59" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N59" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O59" s="58" t="n"/>
-      <c r="P59" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S59" s="58" t="n"/>
-      <c r="T59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V59" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W59" s="53" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="X59" s="50" t="n">
-        <v>45307</v>
-      </c>
+      <c r="K59" s="43">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="L59" s="44">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="M59" s="44">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <v/>
+      </c>
+      <c r="N59" s="45">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <v/>
+      </c>
+      <c r="O59" s="43">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="P59" s="44">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="Q59" s="44">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <v/>
+      </c>
+      <c r="R59" s="44">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="S59" s="46">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="T59" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <v/>
+      </c>
+      <c r="U59" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <v/>
+      </c>
+      <c r="V59" s="47">
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <v/>
+      </c>
+      <c r="W59" s="47" t="n"/>
+      <c r="X59" s="47" t="n"/>
       <c r="Y59" s="46">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z59" s="60">
-        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
-        <v/>
-      </c>
-      <c r="AA59" s="60">
-        <f>((E18*D18)+Z18)</f>
-        <v/>
-      </c>
-      <c r="AB59" s="61">
-        <f>D18</f>
-        <v/>
-      </c>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <v/>
+      </c>
+      <c r="Z59" s="47" t="n"/>
+      <c r="AA59" s="47" t="n"/>
+      <c r="AB59" s="48" t="n"/>
       <c r="AC59" s="44">
-        <f>if(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD59" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B14="DIV", F14,"")</f>
+        <v/>
+      </c>
+      <c r="AD59" s="49" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="54" t="n">
-        <v>44239</v>
-      </c>
-      <c r="B60" s="55" t="inlineStr">
+      <c r="A60" s="50" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B60" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C60" s="55" t="inlineStr">
+      <c r="C60" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
-      <c r="D60" s="57" t="n">
-        <v>120</v>
-      </c>
-      <c r="E60" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="F60" s="42" t="n">
-        <v>26336.62</v>
-      </c>
-      <c r="G60" s="57" t="inlineStr">
+      <c r="D60" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="53" t="n">
+        <v>1383.59</v>
+      </c>
+      <c r="F60" s="53" t="n">
+        <v>2767.17</v>
+      </c>
+      <c r="G60" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H60" s="57" t="n">
-        <v>26.54</v>
-      </c>
-      <c r="I60" s="57" t="n">
-        <v>158.14</v>
+      <c r="H60" s="52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I60" s="52" t="n">
+        <v>16.72</v>
       </c>
       <c r="J60" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K60" s="47" t="n"/>
-      <c r="L60" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="M60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
-        <v/>
-      </c>
-      <c r="N60" s="59">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
-        <v/>
-      </c>
-      <c r="O60" s="58" t="n"/>
-      <c r="P60" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v/>
-      </c>
-      <c r="Q60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
-        <v/>
-      </c>
-      <c r="R60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="S60" s="58" t="n"/>
-      <c r="T60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
-        <v/>
-      </c>
-      <c r="U60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
-        <v/>
-      </c>
-      <c r="V60" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+      <c r="K60" s="43">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="L60" s="44">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="M60" s="44">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <v/>
+      </c>
+      <c r="N60" s="45">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <v/>
+      </c>
+      <c r="O60" s="43">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="P60" s="44">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="Q60" s="44">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <v/>
+      </c>
+      <c r="R60" s="44">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <v/>
+      </c>
+      <c r="S60" s="46">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <v/>
+      </c>
+      <c r="T60" s="47">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <v/>
+      </c>
+      <c r="U60" s="47">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <v/>
+      </c>
+      <c r="V60" s="47">
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W60" s="47" t="n"/>
       <c r="X60" s="47" t="n"/>
       <c r="Y60" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z60" s="47" t="n"/>
       <c r="AA60" s="47" t="n"/>
       <c r="AB60" s="48" t="n"/>
       <c r="AC60" s="44">
-        <f>if(B19="DIV", F19,"")</f>
-        <v/>
-      </c>
-      <c r="AD60" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B15="DIV", F15,"")</f>
+        <v/>
+      </c>
+      <c r="AD60" s="49" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="54" t="n">
-        <v>44214</v>
-      </c>
-      <c r="B61" s="55" t="inlineStr">
+      <c r="A61" s="50" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B61" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C61" s="55" t="inlineStr">
+      <c r="C61" s="51" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D61" s="57" t="n">
-        <v>10</v>
-      </c>
-      <c r="E61" s="42" t="n">
-        <v>204.249</v>
-      </c>
-      <c r="F61" s="42" t="n">
-        <v>2056.51</v>
-      </c>
-      <c r="G61" s="57" t="inlineStr">
+      <c r="D61" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="53" t="n">
+        <v>1398.44</v>
+      </c>
+      <c r="F61" s="53" t="n">
+        <v>2796.88</v>
+      </c>
+      <c r="G61" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H61" s="57" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I61" s="57" t="n">
-        <v>12.42</v>
+      <c r="H61" s="52" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I61" s="52" t="n">
+        <v>16.91</v>
       </c>
       <c r="J61" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K61" s="42" t="n"/>
-      <c r="L61" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
-        <v/>
-      </c>
-      <c r="M61" s="63">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="N61" s="64">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O61" s="42" t="n"/>
-      <c r="P61" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="Q61" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="R61" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="S61" s="58" t="n"/>
-      <c r="T61" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="U61" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="V61" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W61" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X61" s="54" t="n">
-        <v>44239</v>
-      </c>
+      <c r="K61" s="43">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="L61" s="44">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="M61" s="44">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <v/>
+      </c>
+      <c r="N61" s="45">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <v/>
+      </c>
+      <c r="O61" s="43">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="P61" s="44">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="Q61" s="44">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <v/>
+      </c>
+      <c r="R61" s="44">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="S61" s="46">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="T61" s="47">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <v/>
+      </c>
+      <c r="U61" s="47">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <v/>
+      </c>
+      <c r="V61" s="47">
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <v/>
+      </c>
+      <c r="W61" s="47" t="n"/>
+      <c r="X61" s="47" t="n"/>
       <c r="Y61" s="46">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
-        <v/>
-      </c>
-      <c r="Z61" s="60">
-        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
-        <v/>
-      </c>
-      <c r="AA61" s="60">
-        <f>((E20*D20)+Z20)</f>
-        <v/>
-      </c>
-      <c r="AB61" s="61">
-        <f>D20</f>
-        <v/>
-      </c>
-      <c r="AC61" s="42">
-        <f>if(B20="DIV", F20,"")</f>
-        <v/>
-      </c>
-      <c r="AD61" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <v/>
+      </c>
+      <c r="Z61" s="47" t="n"/>
+      <c r="AA61" s="47" t="n"/>
+      <c r="AB61" s="48" t="n"/>
+      <c r="AC61" s="44">
+        <f>if(B16="DIV", F16,"")</f>
+        <v/>
+      </c>
+      <c r="AD61" s="49" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="54" t="n">
-        <v>44207</v>
-      </c>
-      <c r="B62" s="55" t="inlineStr">
+      <c r="A62" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B62" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C62" s="55" t="inlineStr">
+      <c r="C62" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D62" s="57" t="n">
-        <v>10</v>
-      </c>
-      <c r="E62" s="42" t="n">
-        <v>206.996</v>
-      </c>
-      <c r="F62" s="42" t="n">
-        <v>2084.34</v>
-      </c>
-      <c r="G62" s="57" t="inlineStr">
+      <c r="D62" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="F62" s="53" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G62" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H62" s="57" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I62" s="57" t="n">
-        <v>12.6</v>
+      <c r="H62" s="52" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I62" s="52" t="n">
+        <v>19.71</v>
       </c>
       <c r="J62" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K62" s="42" t="n"/>
-      <c r="L62" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
-        <v/>
-      </c>
-      <c r="M62" s="63">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
-        <v/>
-      </c>
-      <c r="N62" s="64">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
-        <v/>
-      </c>
-      <c r="O62" s="42" t="n"/>
-      <c r="P62" s="42">
-        <f>if(C21="DIV", G21,"")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="65">
-        <f>if(D21="DIV", H21,"")</f>
-        <v/>
-      </c>
-      <c r="R62" s="65">
-        <f>if(E21="DIV", I21,"")</f>
-        <v/>
-      </c>
-      <c r="S62" s="58" t="n"/>
-      <c r="T62" s="58">
-        <f>if(G21="DIV", N21,"")</f>
-        <v/>
-      </c>
-      <c r="U62" s="58">
-        <f>if(H21="DIV", #REF!,"")</f>
-        <v/>
-      </c>
-      <c r="V62" s="58">
-        <f>if(I21="DIV", #REF!,"")</f>
-        <v/>
-      </c>
-      <c r="W62" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X62" s="54" t="n">
-        <v>44239</v>
-      </c>
+      <c r="K62" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L62" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M62" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N62" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O62" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P62" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q62" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R62" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S62" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T62" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U62" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V62" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W62" s="47" t="n"/>
+      <c r="X62" s="47" t="n"/>
       <c r="Y62" s="46">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="60">
-        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
-        <v/>
-      </c>
-      <c r="AA62" s="60">
-        <f>((E21*D21)+Z21)</f>
-        <v/>
-      </c>
-      <c r="AB62" s="61">
-        <f>D21</f>
-        <v/>
-      </c>
-      <c r="AC62" s="42">
-        <f>if(B21="DIV", F21,"")</f>
-        <v/>
-      </c>
-      <c r="AD62" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z62" s="47" t="n"/>
+      <c r="AA62" s="47" t="n"/>
+      <c r="AB62" s="48" t="n"/>
+      <c r="AC62" s="44">
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD62" s="49" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="54" t="n">
-        <v>44172</v>
+        <v>45225</v>
       </c>
       <c r="B63" s="55" t="inlineStr">
         <is>
@@ -4327,13 +4048,13 @@
         </is>
       </c>
       <c r="D63" s="57" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E63" s="42" t="n">
-        <v>204.745</v>
+        <v>450.95</v>
       </c>
       <c r="F63" s="42" t="n">
-        <v>10308.25</v>
+        <v>2270.75</v>
       </c>
       <c r="G63" s="57" t="inlineStr">
         <is>
@@ -4341,78 +4062,78 @@
         </is>
       </c>
       <c r="H63" s="57" t="n">
-        <v>9.5</v>
+        <v>2.27</v>
       </c>
       <c r="I63" s="57" t="n">
-        <v>61.25</v>
+        <v>13.73</v>
       </c>
       <c r="J63" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K63" s="42" t="n"/>
-      <c r="L63" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
-        <v/>
-      </c>
-      <c r="M63" s="63">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
-        <v/>
-      </c>
-      <c r="N63" s="64">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
-        <v/>
-      </c>
-      <c r="O63" s="42" t="n"/>
-      <c r="P63" s="42">
-        <f>if(C22="DIV", G22,"")</f>
-        <v/>
-      </c>
-      <c r="Q63" s="65">
-        <f>if(D22="DIV", H22,"")</f>
-        <v/>
-      </c>
-      <c r="R63" s="65">
-        <f>if(E22="DIV", I22,"")</f>
+      <c r="K63" s="47" t="n"/>
+      <c r="L63" s="47">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="58">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <v/>
+      </c>
+      <c r="N63" s="59">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <v/>
+      </c>
+      <c r="O63" s="58" t="n"/>
+      <c r="P63" s="47">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <v/>
+      </c>
+      <c r="Q63" s="58">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <v/>
+      </c>
+      <c r="R63" s="58">
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S63" s="58" t="n"/>
       <c r="T63" s="58">
-        <f>if(G22="DIV", N22,"")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U63" s="58">
-        <f>if(H22="DIV", #REF!,"")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V63" s="58">
-        <f>if(I22="DIV", #REF!,"")</f>
-        <v/>
-      </c>
-      <c r="W63" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X63" s="54" t="n">
-        <v>44239</v>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W63" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="X63" s="50" t="n">
+        <v>45307</v>
       </c>
       <c r="Y63" s="46">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z63" s="60">
-        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <f>(1-Index!$F$2*2)*((W18*D18)-(E18*D18))</f>
         <v/>
       </c>
       <c r="AA63" s="60">
-        <f>((E22*D22)+Z22)</f>
+        <f>((E18*D18)+Z18)</f>
         <v/>
       </c>
       <c r="AB63" s="61">
-        <f>D22</f>
-        <v/>
-      </c>
-      <c r="AC63" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>D18</f>
+        <v/>
+      </c>
+      <c r="AC63" s="44">
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD63" s="62" t="inlineStr">
@@ -4423,7 +4144,7 @@
     </row>
     <row r="64">
       <c r="A64" s="54" t="n">
-        <v>44169</v>
+        <v>44239</v>
       </c>
       <c r="B64" s="55" t="inlineStr">
         <is>
@@ -4432,17 +4153,17 @@
       </c>
       <c r="C64" s="55" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D64" s="57" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E64" s="42" t="n">
-        <v>203.9548</v>
+        <v>217.931</v>
       </c>
       <c r="F64" s="42" t="n">
-        <v>10268.26</v>
+        <v>26336.62</v>
       </c>
       <c r="G64" s="57" t="inlineStr">
         <is>
@@ -4450,78 +4171,65 @@
         </is>
       </c>
       <c r="H64" s="57" t="n">
-        <v>9.49</v>
+        <v>26.54</v>
       </c>
       <c r="I64" s="57" t="n">
-        <v>61.27</v>
+        <v>158.14</v>
       </c>
       <c r="J64" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K64" s="42" t="n"/>
-      <c r="L64" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
-        <v/>
-      </c>
-      <c r="M64" s="63">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
-        <v/>
-      </c>
-      <c r="N64" s="64">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
-        <v/>
-      </c>
-      <c r="O64" s="42" t="n"/>
-      <c r="P64" s="42">
-        <f>if(C23="DIV", G23,"")</f>
-        <v/>
-      </c>
-      <c r="Q64" s="65">
-        <f>if(D23="DIV", H23,"")</f>
-        <v/>
-      </c>
-      <c r="R64" s="65">
-        <f>if(E23="DIV", I23,"")</f>
+      <c r="K64" s="47" t="n"/>
+      <c r="L64" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M64" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N64" s="59">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O64" s="58" t="n"/>
+      <c r="P64" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q64" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R64" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S64" s="58" t="n"/>
       <c r="T64" s="58">
-        <f>if(G23="DIV", N23,"")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U64" s="58">
-        <f>if(H23="DIV", #REF!,"")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V64" s="58">
-        <f>if(I23="DIV", #REF!,"")</f>
-        <v/>
-      </c>
-      <c r="W64" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X64" s="54" t="n">
-        <v>44239</v>
-      </c>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W64" s="47" t="n"/>
+      <c r="X64" s="47" t="n"/>
       <c r="Y64" s="46">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
-        <v/>
-      </c>
-      <c r="Z64" s="60">
-        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
-        <v/>
-      </c>
-      <c r="AA64" s="60">
-        <f>((E23*D23)+Z23)</f>
-        <v/>
-      </c>
-      <c r="AB64" s="61">
-        <f>D23</f>
-        <v/>
-      </c>
-      <c r="AC64" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z64" s="47" t="n"/>
+      <c r="AA64" s="47" t="n"/>
+      <c r="AB64" s="48" t="n"/>
+      <c r="AC64" s="44">
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD64" s="62" t="inlineStr">
@@ -4531,68 +4239,440 @@
       </c>
     </row>
     <row r="65">
-      <c r="E65" s="66" t="n"/>
-      <c r="F65" s="66" t="n"/>
-      <c r="G65" s="67" t="n"/>
-      <c r="J65" s="66" t="n"/>
-      <c r="K65" s="66" t="n"/>
-      <c r="L65" s="66" t="n"/>
-      <c r="M65" s="69" t="n"/>
-      <c r="W65" s="66" t="n"/>
-      <c r="X65" s="66" t="n"/>
-      <c r="Y65" s="66" t="n"/>
-      <c r="Z65" s="66" t="n"/>
-      <c r="AA65" s="66" t="n"/>
-      <c r="AB65" s="66" t="n"/>
-      <c r="AC65" s="66" t="n"/>
+      <c r="A65" s="54" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B65" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C65" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="42" t="n">
+        <v>204.249</v>
+      </c>
+      <c r="F65" s="42" t="n">
+        <v>2056.51</v>
+      </c>
+      <c r="G65" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H65" s="57" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I65" s="57" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J65" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K65" s="42" t="n"/>
+      <c r="L65" s="42">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
+        <v/>
+      </c>
+      <c r="M65" s="63">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
+        <v/>
+      </c>
+      <c r="N65" s="64">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <v/>
+      </c>
+      <c r="O65" s="42" t="n"/>
+      <c r="P65" s="42">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
+        <v/>
+      </c>
+      <c r="Q65" s="65">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
+        <v/>
+      </c>
+      <c r="R65" s="65">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="S65" s="58" t="n"/>
+      <c r="T65" s="58">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <v/>
+      </c>
+      <c r="U65" s="58">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <v/>
+      </c>
+      <c r="V65" s="58">
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <v/>
+      </c>
+      <c r="W65" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X65" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y65" s="46">
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <v/>
+      </c>
+      <c r="Z65" s="60">
+        <f>(1-Index!$F$2*2)*((W20*D20)-(E20*D20))</f>
+        <v/>
+      </c>
+      <c r="AA65" s="60">
+        <f>((E20*D20)+Z20)</f>
+        <v/>
+      </c>
+      <c r="AB65" s="61">
+        <f>D20</f>
+        <v/>
+      </c>
+      <c r="AC65" s="42">
+        <f>if(B20="DIV", F20,"")</f>
+        <v/>
+      </c>
+      <c r="AD65" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="E66" s="66" t="n"/>
-      <c r="F66" s="66" t="n"/>
-      <c r="G66" s="67" t="n"/>
-      <c r="J66" s="66" t="n"/>
-      <c r="K66" s="66" t="n"/>
-      <c r="L66" s="66" t="n"/>
-      <c r="M66" s="69" t="n"/>
-      <c r="W66" s="66" t="n"/>
-      <c r="X66" s="66" t="n"/>
-      <c r="Y66" s="66" t="n"/>
-      <c r="Z66" s="66" t="n"/>
-      <c r="AA66" s="66" t="n"/>
-      <c r="AB66" s="66" t="n"/>
-      <c r="AC66" s="66" t="n"/>
+      <c r="A66" s="54" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B66" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C66" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" s="57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="42" t="n">
+        <v>206.996</v>
+      </c>
+      <c r="F66" s="42" t="n">
+        <v>2084.34</v>
+      </c>
+      <c r="G66" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H66" s="57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I66" s="57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J66" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K66" s="42" t="n"/>
+      <c r="L66" s="42">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
+        <v/>
+      </c>
+      <c r="M66" s="63">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <v/>
+      </c>
+      <c r="N66" s="64">
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <v/>
+      </c>
+      <c r="O66" s="42" t="n"/>
+      <c r="P66" s="42">
+        <f>if(C21="DIV", G21,"")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="65">
+        <f>if(D21="DIV", H21,"")</f>
+        <v/>
+      </c>
+      <c r="R66" s="65">
+        <f>if(E21="DIV", I21,"")</f>
+        <v/>
+      </c>
+      <c r="S66" s="58" t="n"/>
+      <c r="T66" s="58">
+        <f>if(G21="DIV", N21,"")</f>
+        <v/>
+      </c>
+      <c r="U66" s="58">
+        <f>if(H21="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V66" s="58">
+        <f>if(I21="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W66" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X66" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y66" s="46">
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <v/>
+      </c>
+      <c r="Z66" s="60">
+        <f>(1-Index!$F$2*2)*((W21*D21)-(E21*D21))</f>
+        <v/>
+      </c>
+      <c r="AA66" s="60">
+        <f>((E21*D21)+Z21)</f>
+        <v/>
+      </c>
+      <c r="AB66" s="61">
+        <f>D21</f>
+        <v/>
+      </c>
+      <c r="AC66" s="42">
+        <f>if(B21="DIV", F21,"")</f>
+        <v/>
+      </c>
+      <c r="AD66" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="E67" s="66" t="n"/>
-      <c r="F67" s="66" t="n"/>
-      <c r="G67" s="67" t="n"/>
-      <c r="J67" s="66" t="n"/>
-      <c r="K67" s="66" t="n"/>
-      <c r="L67" s="66" t="n"/>
-      <c r="M67" s="69" t="n"/>
-      <c r="W67" s="66" t="n"/>
-      <c r="X67" s="66" t="n"/>
-      <c r="Y67" s="66" t="n"/>
-      <c r="Z67" s="66" t="n"/>
-      <c r="AA67" s="66" t="n"/>
-      <c r="AB67" s="66" t="n"/>
-      <c r="AC67" s="66" t="n"/>
+      <c r="A67" s="54" t="n">
+        <v>44172</v>
+      </c>
+      <c r="B67" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C67" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D67" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" s="42" t="n">
+        <v>204.745</v>
+      </c>
+      <c r="F67" s="42" t="n">
+        <v>10308.25</v>
+      </c>
+      <c r="G67" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H67" s="57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I67" s="57" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="J67" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K67" s="42" t="n"/>
+      <c r="L67" s="42">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
+        <v/>
+      </c>
+      <c r="M67" s="63">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <v/>
+      </c>
+      <c r="N67" s="64">
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <v/>
+      </c>
+      <c r="O67" s="42" t="n"/>
+      <c r="P67" s="42">
+        <f>if(C22="DIV", G22,"")</f>
+        <v/>
+      </c>
+      <c r="Q67" s="65">
+        <f>if(D22="DIV", H22,"")</f>
+        <v/>
+      </c>
+      <c r="R67" s="65">
+        <f>if(E22="DIV", I22,"")</f>
+        <v/>
+      </c>
+      <c r="S67" s="58" t="n"/>
+      <c r="T67" s="58">
+        <f>if(G22="DIV", N22,"")</f>
+        <v/>
+      </c>
+      <c r="U67" s="58">
+        <f>if(H22="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V67" s="58">
+        <f>if(I22="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W67" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X67" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y67" s="46">
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <v/>
+      </c>
+      <c r="Z67" s="60">
+        <f>(1-Index!$F$2*2)*((W22*D22)-(E22*D22))</f>
+        <v/>
+      </c>
+      <c r="AA67" s="60">
+        <f>((E22*D22)+Z22)</f>
+        <v/>
+      </c>
+      <c r="AB67" s="61">
+        <f>D22</f>
+        <v/>
+      </c>
+      <c r="AC67" s="42">
+        <f>if(B22="DIV", F22,"")</f>
+        <v/>
+      </c>
+      <c r="AD67" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="E68" s="66" t="n"/>
-      <c r="F68" s="66" t="n"/>
-      <c r="G68" s="67" t="n"/>
-      <c r="J68" s="66" t="n"/>
-      <c r="K68" s="66" t="n"/>
-      <c r="L68" s="66" t="n"/>
-      <c r="M68" s="69" t="n"/>
-      <c r="W68" s="66" t="n"/>
-      <c r="X68" s="66" t="n"/>
-      <c r="Y68" s="66" t="n"/>
-      <c r="Z68" s="66" t="n"/>
-      <c r="AA68" s="66" t="n"/>
-      <c r="AB68" s="66" t="n"/>
-      <c r="AC68" s="66" t="n"/>
+      <c r="A68" s="54" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B68" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C68" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D68" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E68" s="42" t="n">
+        <v>203.9548</v>
+      </c>
+      <c r="F68" s="42" t="n">
+        <v>10268.26</v>
+      </c>
+      <c r="G68" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H68" s="57" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I68" s="57" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="J68" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K68" s="42" t="n"/>
+      <c r="L68" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <v/>
+      </c>
+      <c r="M68" s="63">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <v/>
+      </c>
+      <c r="N68" s="64">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O68" s="42" t="n"/>
+      <c r="P68" s="42">
+        <f>if(C23="DIV", G23,"")</f>
+        <v/>
+      </c>
+      <c r="Q68" s="65">
+        <f>if(D23="DIV", H23,"")</f>
+        <v/>
+      </c>
+      <c r="R68" s="65">
+        <f>if(E23="DIV", I23,"")</f>
+        <v/>
+      </c>
+      <c r="S68" s="58" t="n"/>
+      <c r="T68" s="58">
+        <f>if(G23="DIV", N23,"")</f>
+        <v/>
+      </c>
+      <c r="U68" s="58">
+        <f>if(H23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V68" s="58">
+        <f>if(I23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W68" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X68" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y68" s="46">
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <v/>
+      </c>
+      <c r="Z68" s="60">
+        <f>(1-Index!$F$2*2)*((W23*D23)-(E23*D23))</f>
+        <v/>
+      </c>
+      <c r="AA68" s="60">
+        <f>((E23*D23)+Z23)</f>
+        <v/>
+      </c>
+      <c r="AB68" s="61">
+        <f>D23</f>
+        <v/>
+      </c>
+      <c r="AC68" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD68" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="E69" s="66" t="n"/>
@@ -20137,6 +20217,7 @@
       <c r="J1040" s="66" t="n"/>
       <c r="K1040" s="66" t="n"/>
       <c r="L1040" s="66" t="n"/>
+      <c r="M1040" s="69" t="n"/>
       <c r="W1040" s="66" t="n"/>
       <c r="X1040" s="66" t="n"/>
       <c r="Y1040" s="66" t="n"/>
@@ -20152,6 +20233,7 @@
       <c r="J1041" s="66" t="n"/>
       <c r="K1041" s="66" t="n"/>
       <c r="L1041" s="66" t="n"/>
+      <c r="M1041" s="69" t="n"/>
       <c r="W1041" s="66" t="n"/>
       <c r="X1041" s="66" t="n"/>
       <c r="Y1041" s="66" t="n"/>
@@ -20167,6 +20249,7 @@
       <c r="J1042" s="66" t="n"/>
       <c r="K1042" s="66" t="n"/>
       <c r="L1042" s="66" t="n"/>
+      <c r="M1042" s="69" t="n"/>
       <c r="W1042" s="66" t="n"/>
       <c r="X1042" s="66" t="n"/>
       <c r="Y1042" s="66" t="n"/>
@@ -20182,6 +20265,7 @@
       <c r="J1043" s="66" t="n"/>
       <c r="K1043" s="66" t="n"/>
       <c r="L1043" s="66" t="n"/>
+      <c r="M1043" s="69" t="n"/>
       <c r="W1043" s="66" t="n"/>
       <c r="X1043" s="66" t="n"/>
       <c r="Y1043" s="66" t="n"/>
@@ -20384,6 +20468,66 @@
       <c r="AA1056" s="66" t="n"/>
       <c r="AB1056" s="66" t="n"/>
       <c r="AC1056" s="66" t="n"/>
+    </row>
+    <row r="1057">
+      <c r="E1057" s="66" t="n"/>
+      <c r="F1057" s="66" t="n"/>
+      <c r="G1057" s="67" t="n"/>
+      <c r="J1057" s="66" t="n"/>
+      <c r="K1057" s="66" t="n"/>
+      <c r="L1057" s="66" t="n"/>
+      <c r="W1057" s="66" t="n"/>
+      <c r="X1057" s="66" t="n"/>
+      <c r="Y1057" s="66" t="n"/>
+      <c r="Z1057" s="66" t="n"/>
+      <c r="AA1057" s="66" t="n"/>
+      <c r="AB1057" s="66" t="n"/>
+      <c r="AC1057" s="66" t="n"/>
+    </row>
+    <row r="1058">
+      <c r="E1058" s="66" t="n"/>
+      <c r="F1058" s="66" t="n"/>
+      <c r="G1058" s="67" t="n"/>
+      <c r="J1058" s="66" t="n"/>
+      <c r="K1058" s="66" t="n"/>
+      <c r="L1058" s="66" t="n"/>
+      <c r="W1058" s="66" t="n"/>
+      <c r="X1058" s="66" t="n"/>
+      <c r="Y1058" s="66" t="n"/>
+      <c r="Z1058" s="66" t="n"/>
+      <c r="AA1058" s="66" t="n"/>
+      <c r="AB1058" s="66" t="n"/>
+      <c r="AC1058" s="66" t="n"/>
+    </row>
+    <row r="1059">
+      <c r="E1059" s="66" t="n"/>
+      <c r="F1059" s="66" t="n"/>
+      <c r="G1059" s="67" t="n"/>
+      <c r="J1059" s="66" t="n"/>
+      <c r="K1059" s="66" t="n"/>
+      <c r="L1059" s="66" t="n"/>
+      <c r="W1059" s="66" t="n"/>
+      <c r="X1059" s="66" t="n"/>
+      <c r="Y1059" s="66" t="n"/>
+      <c r="Z1059" s="66" t="n"/>
+      <c r="AA1059" s="66" t="n"/>
+      <c r="AB1059" s="66" t="n"/>
+      <c r="AC1059" s="66" t="n"/>
+    </row>
+    <row r="1060">
+      <c r="E1060" s="66" t="n"/>
+      <c r="F1060" s="66" t="n"/>
+      <c r="G1060" s="67" t="n"/>
+      <c r="J1060" s="66" t="n"/>
+      <c r="K1060" s="66" t="n"/>
+      <c r="L1060" s="66" t="n"/>
+      <c r="W1060" s="66" t="n"/>
+      <c r="X1060" s="66" t="n"/>
+      <c r="Y1060" s="66" t="n"/>
+      <c r="Z1060" s="66" t="n"/>
+      <c r="AA1060" s="66" t="n"/>
+      <c r="AB1060" s="66" t="n"/>
+      <c r="AC1060" s="66" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$92"/>

--- a/dumps/Stocks/Va Tech Wabag Ltd.xlsx
+++ b/dumps/Stocks/Va Tech Wabag Ltd.xlsx
@@ -791,7 +791,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1042"/>
+  <dimension ref="A1:AP1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="5">
       <c r="A5" s="100" t="n">
-        <v>46050</v>
+        <v>45953</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1156,21 +1156,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1075.5</v>
+        <v>1429.92</v>
       </c>
       <c r="F5" t="n">
-        <v>3242.64</v>
+        <v>7149.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>16.14</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1179,7 +1176,7 @@
     </row>
     <row r="6">
       <c r="A6" s="100" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1192,21 +1189,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1052.3</v>
+        <v>1075.5</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7402.92</v>
+        <v>3242.64</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>36.82</v>
+        <v>16.14</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="7">
       <c r="A7" s="100" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1228,21 +1225,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1195</v>
+        <v>1052.3</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3602.94</v>
+        <v>7402.92</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>17.94</v>
+        <v>36.82</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="8">
       <c r="A8" s="100" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1264,21 +1261,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1188.1</v>
+        <v>1195</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5970.2</v>
+        <v>3602.94</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>29.7</v>
+        <v>17.94</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="9">
       <c r="A9" s="100" t="n">
-        <v>46027</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1300,21 +1297,21 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1291.6</v>
+        <v>1188.1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3894.18</v>
+        <v>5970.2</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.38</v>
+        <v>29.7</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1323,11 +1320,11 @@
     </row>
     <row r="10">
       <c r="A10" s="100" t="n">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1339,18 +1336,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1294.6</v>
+        <v>1291.6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3903.21</v>
+        <v>3894.18</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610092927</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19.41</v>
+        <v>19.38</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="11">
       <c r="A11" s="100" t="n">
-        <v>46020</v>
+        <v>46024</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1372,21 +1369,21 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1276.55</v>
+        <v>1294.6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5131.72</v>
+        <v>3903.21</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252610092927</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>25.52</v>
+        <v>19.41</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1395,11 +1392,11 @@
     </row>
     <row r="12">
       <c r="A12" s="100" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1408,21 +1405,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1286.8</v>
+        <v>1276.55</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3879.69</v>
+        <v>5131.72</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19.29</v>
+        <v>25.52</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="13">
       <c r="A13" s="100" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1447,18 +1444,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1307</v>
+        <v>1286.8</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3940.62</v>
+        <v>3879.69</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.62</v>
+        <v>19.29</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1467,11 +1464,11 @@
     </row>
     <row r="14">
       <c r="A14" s="100" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1480,21 +1477,21 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1282.1125</v>
+        <v>1307</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>5154.09</v>
+        <v>3940.62</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>25.64</v>
+        <v>19.62</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1503,11 +1500,11 @@
     </row>
     <row r="15">
       <c r="A15" s="100" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1516,21 +1513,21 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1303.1</v>
+        <v>1282.1125</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6548.1</v>
+        <v>5154.09</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>32.6</v>
+        <v>25.64</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1539,11 +1536,11 @@
     </row>
     <row r="16">
       <c r="A16" s="100" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1555,18 +1552,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1264.75</v>
+        <v>1303.1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6355.35</v>
+        <v>6548.1</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>31.6</v>
+        <v>32.6</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1575,11 +1572,11 @@
     </row>
     <row r="17">
       <c r="A17" s="100" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1588,21 +1585,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1309.7</v>
+        <v>1264.75</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3948.75</v>
+        <v>6355.35</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.65</v>
+        <v>31.6</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1611,11 +1608,11 @@
     </row>
     <row r="18">
       <c r="A18" s="100" t="n">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1627,18 +1624,18 @@
         <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1376.8</v>
+        <v>1309.7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4151.04</v>
+        <v>3948.75</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>20.64</v>
+        <v>19.65</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1647,11 +1644,11 @@
     </row>
     <row r="19">
       <c r="A19" s="100" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1663,14 +1660,14 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1376.3</v>
+        <v>1376.8</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4149.54</v>
+        <v>4151.04</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
@@ -1683,7 +1680,7 @@
     </row>
     <row r="20">
       <c r="A20" s="100" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1699,18 +1696,18 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1369.8</v>
+        <v>1376.3</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4129.95</v>
+        <v>4149.54</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>20.55</v>
+        <v>20.64</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1719,11 +1716,11 @@
     </row>
     <row r="21">
       <c r="A21" s="100" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1732,21 +1729,21 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1433.55</v>
+        <v>1369.8</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2881.44</v>
+        <v>4129.95</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>14.34</v>
+        <v>20.55</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="22">
       <c r="A22" s="100" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1768,21 +1765,21 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1404.35</v>
+        <v>1433.55</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4234.11</v>
+        <v>2881.44</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>21.06</v>
+        <v>14.34</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1791,11 +1788,11 @@
     </row>
     <row r="23">
       <c r="A23" s="100" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1804,21 +1801,21 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1413.5</v>
+        <v>1404.35</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2841.14</v>
+        <v>4234.11</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>14.14</v>
+        <v>21.06</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="24">
       <c r="A24" s="100" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1843,18 +1840,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1404</v>
+        <v>1413.5</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2822.04</v>
+        <v>2841.14</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>14.04</v>
+        <v>14.14</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1863,7 +1860,7 @@
     </row>
     <row r="25">
       <c r="A25" s="100" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1879,18 +1876,18 @@
         <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1407.3</v>
+        <v>1404</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2828.68</v>
+        <v>2822.04</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>14.08</v>
+        <v>14.04</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1899,11 +1896,11 @@
     </row>
     <row r="26">
       <c r="A26" s="100" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1912,21 +1909,21 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1409.5</v>
+        <v>1407.3</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>7082.75</v>
+        <v>2828.68</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>35.25</v>
+        <v>14.08</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1935,11 +1932,11 @@
     </row>
     <row r="27">
       <c r="A27" s="100" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1951,18 +1948,18 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1357.6</v>
+        <v>1409.5</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6821.95</v>
+        <v>7082.75</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>33.95</v>
+        <v>35.25</v>
       </c>
       <c r="J27" s="0">
         <f>Index!$C$2</f>
@@ -1971,7 +1968,7 @@
     </row>
     <row r="28">
       <c r="A28" s="100" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1984,21 +1981,21 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1351.8</v>
+        <v>1357.6</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2717.12</v>
+        <v>6821.95</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>13.52</v>
+        <v>33.95</v>
       </c>
       <c r="J28" s="0">
         <f>Index!$C$2</f>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="29">
       <c r="A29" s="100" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -2023,18 +2020,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1416.8</v>
+        <v>1351.8</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2847.76</v>
+        <v>2717.12</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>14.16</v>
+        <v>13.52</v>
       </c>
       <c r="J29" s="0">
         <f>Index!$C$2</f>
@@ -2043,11 +2040,11 @@
     </row>
     <row r="30">
       <c r="A30" s="100" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
@@ -2056,21 +2053,21 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1404.46666667</v>
+        <v>1416.8</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>4234.46</v>
+        <v>2847.76</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>21.06</v>
+        <v>14.16</v>
       </c>
       <c r="J30" s="0">
         <f>Index!$C$2</f>
@@ -2079,11 +2076,11 @@
     </row>
     <row r="31">
       <c r="A31" s="100" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
@@ -2092,128 +2089,66 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1404.46666667</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>4234.46</v>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="J31" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="100" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>1402.75</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>2819.52</v>
       </c>
-      <c r="G31" s="0" t="inlineStr">
+      <c r="G32" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>14.02</v>
       </c>
-      <c r="J31" s="0">
+      <c r="J32" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B32" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C32" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D32" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" s="41" t="n">
-        <v>1413.01</v>
-      </c>
-      <c r="F32" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G32" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H32" s="40" t="n"/>
-      <c r="I32" s="40" t="n"/>
-      <c r="J32" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K32" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R32" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W32" s="47" t="n"/>
-      <c r="X32" s="47" t="n"/>
-      <c r="Y32" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="47" t="n"/>
-      <c r="AA32" s="47" t="n"/>
-      <c r="AB32" s="48" t="n"/>
-      <c r="AC32" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="49" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2229,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>1412.72</v>
+        <v>1413.01</v>
       </c>
       <c r="F33" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
@@ -2247,75 +2182,75 @@
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="38" t="n">
-        <v>45874</v>
+        <v>45947</v>
       </c>
       <c r="B34" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="39" t="inlineStr">
@@ -2324,99 +2259,96 @@
         </is>
       </c>
       <c r="D34" s="40" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E34" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" s="41" t="n">
-        <v>100</v>
+        <v>1412.72</v>
+      </c>
+      <c r="F34" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G34" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
+          <t>~</t>
         </is>
       </c>
-      <c r="H34" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="H34" s="40" t="n"/>
+      <c r="I34" s="40" t="n"/>
       <c r="J34" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K34" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N34" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O34" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R34" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S34" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="38" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="B35" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C35" s="39" t="inlineStr">
@@ -2425,88 +2357,88 @@
         </is>
       </c>
       <c r="D35" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="41" t="n">
-        <v>1467.02</v>
-      </c>
       <c r="F35" s="41" t="n">
-        <v>5868.08</v>
+        <v>100</v>
       </c>
       <c r="G35" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.4.0000/- per share on Ex-Date: 05-AUG-2025</t>
         </is>
       </c>
       <c r="H35" s="40" t="n">
-        <v>5.82</v>
+        <v>0</v>
       </c>
       <c r="I35" s="40" t="n">
-        <v>35.46</v>
+        <v>0</v>
       </c>
       <c r="J35" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K35" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N35" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O35" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R35" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S35" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V35" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W35" s="47" t="n"/>
       <c r="X35" s="47" t="n"/>
       <c r="Y35" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z35" s="47" t="n"/>
       <c r="AA35" s="47" t="n"/>
       <c r="AB35" s="48" t="n"/>
       <c r="AC35" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD35" s="49" t="n"/>
@@ -2526,13 +2458,13 @@
         </is>
       </c>
       <c r="D36" s="40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" s="41" t="n">
-        <v>1467.12</v>
+        <v>1467.02</v>
       </c>
       <c r="F36" s="41" t="n">
-        <v>1467.12</v>
+        <v>5868.08</v>
       </c>
       <c r="G36" s="39" t="inlineStr">
         <is>
@@ -2540,175 +2472,175 @@
         </is>
       </c>
       <c r="H36" s="40" t="n">
-        <v>1.46</v>
+        <v>5.82</v>
       </c>
       <c r="I36" s="40" t="n">
-        <v>8.859999999999999</v>
+        <v>35.46</v>
       </c>
       <c r="J36" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K36" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N36" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O36" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R36" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S36" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V36" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W36" s="47" t="n"/>
       <c r="X36" s="47" t="n"/>
       <c r="Y36" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z36" s="47" t="n"/>
       <c r="AA36" s="47" t="n"/>
       <c r="AB36" s="48" t="n"/>
       <c r="AC36" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD36" s="49" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="50" t="n">
-        <v>45716</v>
-      </c>
-      <c r="B37" s="51" t="inlineStr">
+      <c r="A37" s="38" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B37" s="39" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C37" s="51" t="inlineStr">
+      <c r="C37" s="39" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D37" s="52" t="n">
+      <c r="D37" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="F37" s="53" t="n">
-        <v>1296.01</v>
-      </c>
-      <c r="G37" s="51" t="inlineStr">
+      <c r="E37" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="F37" s="41" t="n">
+        <v>1467.12</v>
+      </c>
+      <c r="G37" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H37" s="52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I37" s="52" t="n">
-        <v>7.82</v>
+      <c r="H37" s="40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I37" s="40" t="n">
+        <v>8.859999999999999</v>
       </c>
       <c r="J37" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K37" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N37" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O37" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R37" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S37" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V37" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W37" s="47" t="n"/>
       <c r="X37" s="47" t="n"/>
       <c r="Y37" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z37" s="47" t="n"/>
       <c r="AA37" s="47" t="n"/>
       <c r="AB37" s="48" t="n"/>
       <c r="AC37" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD37" s="49" t="n"/>
@@ -2752,64 +2684,64 @@
         <v/>
       </c>
       <c r="K38" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N38" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O38" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R38" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S38" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V38" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W38" s="47" t="n"/>
       <c r="X38" s="47" t="n"/>
       <c r="Y38" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z38" s="47" t="n"/>
       <c r="AA38" s="47" t="n"/>
       <c r="AB38" s="48" t="n"/>
       <c r="AC38" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD38" s="49" t="n"/>
@@ -2829,13 +2761,13 @@
         </is>
       </c>
       <c r="D39" s="52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="53" t="n">
         <v>1296.01</v>
       </c>
       <c r="F39" s="53" t="n">
-        <v>3888.03</v>
+        <v>1296.01</v>
       </c>
       <c r="G39" s="51" t="inlineStr">
         <is>
@@ -2843,81 +2775,81 @@
         </is>
       </c>
       <c r="H39" s="52" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I39" s="52" t="n">
-        <v>23.48</v>
+        <v>7.82</v>
       </c>
       <c r="J39" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K39" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N39" s="45">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O39" s="43">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R39" s="44">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S39" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V39" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W39" s="47" t="n"/>
       <c r="X39" s="47" t="n"/>
       <c r="Y39" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z39" s="47" t="n"/>
       <c r="AA39" s="47" t="n"/>
       <c r="AB39" s="48" t="n"/>
       <c r="AC39" s="44">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD39" s="49" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="50" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
@@ -2930,13 +2862,13 @@
         </is>
       </c>
       <c r="D40" s="52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="53" t="n">
-        <v>1437.12</v>
+        <v>1296.01</v>
       </c>
       <c r="F40" s="53" t="n">
-        <v>7185.59</v>
+        <v>3888.03</v>
       </c>
       <c r="G40" s="51" t="inlineStr">
         <is>
@@ -2944,81 +2876,81 @@
         </is>
       </c>
       <c r="H40" s="52" t="n">
-        <v>7.13</v>
+        <v>3.85</v>
       </c>
       <c r="I40" s="52" t="n">
-        <v>43.46</v>
+        <v>23.48</v>
       </c>
       <c r="J40" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L40" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M40" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N40" s="45">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O40" s="43">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P40" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R40" s="44">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S40" s="46">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V40" s="47">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W40" s="47" t="n"/>
       <c r="X40" s="47" t="n"/>
       <c r="Y40" s="46">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z40" s="47" t="n"/>
       <c r="AA40" s="47" t="n"/>
       <c r="AB40" s="48" t="n"/>
       <c r="AC40" s="44">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD40" s="49" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="50" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
@@ -3031,13 +2963,13 @@
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="53" t="n">
-        <v>1362.48</v>
+        <v>1437.12</v>
       </c>
       <c r="F41" s="53" t="n">
-        <v>8174.89</v>
+        <v>7185.59</v>
       </c>
       <c r="G41" s="51" t="inlineStr">
         <is>
@@ -3045,81 +2977,81 @@
         </is>
       </c>
       <c r="H41" s="52" t="n">
-        <v>8.109999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="I41" s="52" t="n">
-        <v>49.38</v>
+        <v>43.46</v>
       </c>
       <c r="J41" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L41" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M41" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N41" s="45">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O41" s="43">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P41" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R41" s="44">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S41" s="46">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V41" s="47">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W41" s="47" t="n"/>
       <c r="X41" s="47" t="n"/>
       <c r="Y41" s="46">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z41" s="47" t="n"/>
       <c r="AA41" s="47" t="n"/>
       <c r="AB41" s="48" t="n"/>
       <c r="AC41" s="44">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD41" s="49" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="50" t="n">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
@@ -3132,13 +3064,13 @@
         </is>
       </c>
       <c r="D42" s="52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E42" s="53" t="n">
-        <v>1383.59</v>
+        <v>1362.48</v>
       </c>
       <c r="F42" s="53" t="n">
-        <v>2767.17</v>
+        <v>8174.89</v>
       </c>
       <c r="G42" s="51" t="inlineStr">
         <is>
@@ -3146,81 +3078,81 @@
         </is>
       </c>
       <c r="H42" s="52" t="n">
-        <v>2.75</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I42" s="52" t="n">
-        <v>16.72</v>
+        <v>49.38</v>
       </c>
       <c r="J42" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L42" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M42" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N42" s="45">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O42" s="43">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P42" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R42" s="44">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S42" s="46">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T42" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U42" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V42" s="47">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W42" s="47" t="n"/>
       <c r="X42" s="47" t="n"/>
       <c r="Y42" s="46">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z42" s="47" t="n"/>
       <c r="AA42" s="47" t="n"/>
       <c r="AB42" s="48" t="n"/>
       <c r="AC42" s="44">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD42" s="49" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="50" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
@@ -3236,10 +3168,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="53" t="n">
-        <v>1398.44</v>
+        <v>1383.59</v>
       </c>
       <c r="F43" s="53" t="n">
-        <v>2796.88</v>
+        <v>2767.17</v>
       </c>
       <c r="G43" s="51" t="inlineStr">
         <is>
@@ -3247,81 +3179,81 @@
         </is>
       </c>
       <c r="H43" s="52" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I43" s="52" t="n">
-        <v>16.91</v>
+        <v>16.72</v>
       </c>
       <c r="J43" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L43" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M43" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N43" s="45">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O43" s="43">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P43" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R43" s="44">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S43" s="46">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T43" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U43" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V43" s="47">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W43" s="47" t="n"/>
       <c r="X43" s="47" t="n"/>
       <c r="Y43" s="46">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z43" s="47" t="n"/>
       <c r="AA43" s="47" t="n"/>
       <c r="AB43" s="48" t="n"/>
       <c r="AC43" s="44">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD43" s="49" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="50" t="n">
-        <v>45307</v>
+        <v>45694</v>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
@@ -3330,17 +3262,17 @@
       </c>
       <c r="C44" s="51" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D44" s="52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" s="53" t="n">
-        <v>658.4</v>
+        <v>1398.44</v>
       </c>
       <c r="F44" s="53" t="n">
-        <v>3292</v>
+        <v>2796.88</v>
       </c>
       <c r="G44" s="51" t="inlineStr">
         <is>
@@ -3348,186 +3280,182 @@
         </is>
       </c>
       <c r="H44" s="52" t="n">
-        <v>3.29</v>
+        <v>2.77</v>
       </c>
       <c r="I44" s="52" t="n">
-        <v>19.71</v>
+        <v>16.91</v>
       </c>
       <c r="J44" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L44" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M44" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N44" s="45">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O44" s="43">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P44" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R44" s="44">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S44" s="46">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T44" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U44" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V44" s="47">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W44" s="47" t="n"/>
       <c r="X44" s="47" t="n"/>
       <c r="Y44" s="46">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z44" s="47" t="n"/>
       <c r="AA44" s="47" t="n"/>
       <c r="AB44" s="48" t="n"/>
       <c r="AC44" s="44">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD44" s="49" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="54" t="n">
-        <v>45225</v>
-      </c>
-      <c r="B45" s="55" t="inlineStr">
+      <c r="A45" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B45" s="51" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C45" s="55" t="inlineStr">
+      <c r="C45" s="51" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
-      <c r="D45" s="57" t="n">
+      <c r="D45" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="E45" s="42" t="n">
-        <v>450.95</v>
-      </c>
-      <c r="F45" s="42" t="n">
-        <v>2270.75</v>
-      </c>
-      <c r="G45" s="57" t="inlineStr">
+      <c r="E45" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="F45" s="53" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G45" s="51" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H45" s="57" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I45" s="57" t="n">
-        <v>13.73</v>
+      <c r="H45" s="52" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="I45" s="52" t="n">
+        <v>19.71</v>
       </c>
       <c r="J45" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K45" s="47" t="n"/>
-      <c r="L45" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N45" s="59">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O45" s="58" t="n"/>
-      <c r="P45" s="47">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S45" s="58" t="n"/>
-      <c r="T45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
-        <v/>
-      </c>
-      <c r="U45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V45" s="58">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W45" s="53" t="n">
-        <v>658.4</v>
-      </c>
-      <c r="X45" s="50" t="n">
-        <v>45307</v>
-      </c>
-      <c r="Y45" s="46" t="n">
-        <v>0.4472410626</v>
-      </c>
-      <c r="Z45" s="60" t="n">
-        <v>1022.7285</v>
-      </c>
-      <c r="AA45" s="60" t="n">
-        <v>3277.4785</v>
-      </c>
-      <c r="AB45" s="61" t="n">
-        <v>5</v>
-      </c>
+      <c r="K45" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="L45" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="M45" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <v/>
+      </c>
+      <c r="N45" s="45">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <v/>
+      </c>
+      <c r="O45" s="43">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="P45" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="Q45" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <v/>
+      </c>
+      <c r="R45" s="44">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="S45" s="46">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="T45" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <v/>
+      </c>
+      <c r="U45" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <v/>
+      </c>
+      <c r="V45" s="47">
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <v/>
+      </c>
+      <c r="W45" s="47" t="n"/>
+      <c r="X45" s="47" t="n"/>
+      <c r="Y45" s="46">
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <v/>
+      </c>
+      <c r="Z45" s="47" t="n"/>
+      <c r="AA45" s="47" t="n"/>
+      <c r="AB45" s="48" t="n"/>
       <c r="AC45" s="44">
-        <f>if(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD45" s="62" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B17="DIV", F17,"")</f>
+        <v/>
+      </c>
+      <c r="AD45" s="49" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="54" t="n">
-        <v>44239</v>
+        <v>45225</v>
       </c>
       <c r="B46" s="55" t="inlineStr">
         <is>
@@ -3536,17 +3464,17 @@
       </c>
       <c r="C46" s="55" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D46" s="57" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="E46" s="42" t="n">
-        <v>217.931</v>
+        <v>450.95</v>
       </c>
       <c r="F46" s="42" t="n">
-        <v>26336.62</v>
+        <v>2270.75</v>
       </c>
       <c r="G46" s="57" t="inlineStr">
         <is>
@@ -3554,10 +3482,10 @@
         </is>
       </c>
       <c r="H46" s="57" t="n">
-        <v>26.54</v>
+        <v>2.27</v>
       </c>
       <c r="I46" s="57" t="n">
-        <v>158.14</v>
+        <v>13.73</v>
       </c>
       <c r="J46" s="42">
         <f>Index!$C$2</f>
@@ -3565,54 +3493,63 @@
       </c>
       <c r="K46" s="47" t="n"/>
       <c r="L46" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N46" s="59">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O46" s="58" t="n"/>
       <c r="P46" s="47">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S46" s="58" t="n"/>
       <c r="T46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (J18*D18)-(E18*D18)-(2*sum(H18:I18)), "")</f>
         <v/>
       </c>
       <c r="U46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V46" s="58">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
-        <v/>
-      </c>
-      <c r="W46" s="47" t="n"/>
-      <c r="X46" s="47" t="n"/>
-      <c r="Y46" s="46">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="47" t="n"/>
-      <c r="AA46" s="47" t="n"/>
-      <c r="AB46" s="48" t="n"/>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <v/>
+      </c>
+      <c r="W46" s="53" t="n">
+        <v>658.4</v>
+      </c>
+      <c r="X46" s="50" t="n">
+        <v>45307</v>
+      </c>
+      <c r="Y46" s="46" t="n">
+        <v>0.4472410626</v>
+      </c>
+      <c r="Z46" s="60" t="n">
+        <v>1022.7285</v>
+      </c>
+      <c r="AA46" s="60" t="n">
+        <v>3277.4785</v>
+      </c>
+      <c r="AB46" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="AC46" s="44">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD46" s="62" t="inlineStr">
@@ -3623,7 +3560,7 @@
     </row>
     <row r="47">
       <c r="A47" s="54" t="n">
-        <v>44214</v>
+        <v>44239</v>
       </c>
       <c r="B47" s="55" t="inlineStr">
         <is>
@@ -3632,17 +3569,17 @@
       </c>
       <c r="C47" s="55" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D47" s="57" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E47" s="42" t="n">
-        <v>204.249</v>
+        <v>217.931</v>
       </c>
       <c r="F47" s="42" t="n">
-        <v>2056.51</v>
+        <v>26336.62</v>
       </c>
       <c r="G47" s="57" t="inlineStr">
         <is>
@@ -3650,74 +3587,65 @@
         </is>
       </c>
       <c r="H47" s="57" t="n">
-        <v>1.59</v>
+        <v>26.54</v>
       </c>
       <c r="I47" s="57" t="n">
-        <v>12.42</v>
+        <v>158.14</v>
       </c>
       <c r="J47" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K47" s="42" t="n"/>
-      <c r="L47" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
-        <v/>
-      </c>
-      <c r="M47" s="63">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="N47" s="64">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
-        <v/>
-      </c>
-      <c r="O47" s="42" t="n"/>
-      <c r="P47" s="42">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
-        <v/>
-      </c>
-      <c r="R47" s="65">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+      <c r="K47" s="47" t="n"/>
+      <c r="L47" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="M47" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <v/>
+      </c>
+      <c r="N47" s="59">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <v/>
+      </c>
+      <c r="O47" s="58" t="n"/>
+      <c r="P47" s="47">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <v/>
+      </c>
+      <c r="Q47" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <v/>
+      </c>
+      <c r="R47" s="58">
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S47" s="58" t="n"/>
       <c r="T47" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (J19*D19)-(E19*D19)-(2*sum(H19:I19)), "")</f>
         <v/>
       </c>
       <c r="U47" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V47" s="58">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
-        <v/>
-      </c>
-      <c r="W47" s="42" t="n">
-        <v>217.931</v>
-      </c>
-      <c r="X47" s="54" t="n">
-        <v>44239</v>
-      </c>
-      <c r="Y47" s="46" t="n">
-        <v>0.06515489829</v>
-      </c>
-      <c r="Z47" s="60" t="n">
-        <v>134.90452</v>
-      </c>
-      <c r="AA47" s="60" t="n">
-        <v>2177.39452</v>
-      </c>
-      <c r="AB47" s="61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC47" s="42">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <v/>
+      </c>
+      <c r="W47" s="47" t="n"/>
+      <c r="X47" s="47" t="n"/>
+      <c r="Y47" s="46">
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <v/>
+      </c>
+      <c r="Z47" s="47" t="n"/>
+      <c r="AA47" s="47" t="n"/>
+      <c r="AB47" s="48" t="n"/>
+      <c r="AC47" s="44">
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD47" s="62" t="inlineStr">
@@ -3728,7 +3656,7 @@
     </row>
     <row r="48">
       <c r="A48" s="54" t="n">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B48" s="55" t="inlineStr">
         <is>
@@ -3744,10 +3672,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="42" t="n">
-        <v>206.996</v>
+        <v>204.249</v>
       </c>
       <c r="F48" s="42" t="n">
-        <v>2084.34</v>
+        <v>2056.51</v>
       </c>
       <c r="G48" s="57" t="inlineStr">
         <is>
@@ -3755,10 +3683,10 @@
         </is>
       </c>
       <c r="H48" s="57" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="I48" s="57" t="n">
-        <v>12.6</v>
+        <v>12.42</v>
       </c>
       <c r="J48" s="42">
         <f>Index!$C$2</f>
@@ -3766,41 +3694,41 @@
       </c>
       <c r="K48" s="42" t="n"/>
       <c r="L48" s="42">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((J20*D20)-(E20*D20)+I20), "")</f>
         <v/>
       </c>
       <c r="M48" s="63">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), J20*D20, "")</f>
         <v/>
       </c>
       <c r="N48" s="64">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O48" s="42" t="n"/>
       <c r="P48" s="42">
-        <f>if(C21="DIV", G21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="Q48" s="65">
-        <f>if(D21="DIV", H21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="R48" s="65">
-        <f>if(E21="DIV", I21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S48" s="58" t="n"/>
       <c r="T48" s="58">
-        <f>if(G21="DIV", N21,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (J20*D20)-(E20*D20), "")</f>
         <v/>
       </c>
       <c r="U48" s="58">
-        <f>if(H21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), J20*D20, "")</f>
         <v/>
       </c>
       <c r="V48" s="58">
-        <f>if(I21="DIV", #REF!,"")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W48" s="42" t="n">
@@ -3810,19 +3738,19 @@
         <v>44239</v>
       </c>
       <c r="Y48" s="46" t="n">
-        <v>0.05137472125</v>
+        <v>0.06515489829</v>
       </c>
       <c r="Z48" s="60" t="n">
-        <v>107.8191</v>
+        <v>134.90452</v>
       </c>
       <c r="AA48" s="60" t="n">
-        <v>2177.7791</v>
+        <v>2177.39452</v>
       </c>
       <c r="AB48" s="61" t="n">
         <v>10</v>
       </c>
       <c r="AC48" s="42">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD48" s="62" t="inlineStr">
@@ -3833,7 +3761,7 @@
     </row>
     <row r="49">
       <c r="A49" s="54" t="n">
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="B49" s="55" t="inlineStr">
         <is>
@@ -3846,13 +3774,13 @@
         </is>
       </c>
       <c r="D49" s="57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E49" s="42" t="n">
-        <v>204.745</v>
+        <v>206.996</v>
       </c>
       <c r="F49" s="42" t="n">
-        <v>10308.25</v>
+        <v>2084.34</v>
       </c>
       <c r="G49" s="57" t="inlineStr">
         <is>
@@ -3860,10 +3788,10 @@
         </is>
       </c>
       <c r="H49" s="57" t="n">
-        <v>9.5</v>
+        <v>1.74</v>
       </c>
       <c r="I49" s="57" t="n">
-        <v>61.25</v>
+        <v>12.6</v>
       </c>
       <c r="J49" s="42">
         <f>Index!$C$2</f>
@@ -3871,41 +3799,41 @@
       </c>
       <c r="K49" s="42" t="n"/>
       <c r="L49" s="42">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((J21*D21)-(E21*D21)+I21), "")</f>
         <v/>
       </c>
       <c r="M49" s="63">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), J21*D21, "")</f>
         <v/>
       </c>
       <c r="N49" s="64">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O49" s="42" t="n"/>
       <c r="P49" s="42">
-        <f>if(C22="DIV", G22,"")</f>
+        <f>if(C21="DIV", G21,"")</f>
         <v/>
       </c>
       <c r="Q49" s="65">
-        <f>if(D22="DIV", H22,"")</f>
+        <f>if(D21="DIV", H21,"")</f>
         <v/>
       </c>
       <c r="R49" s="65">
-        <f>if(E22="DIV", I22,"")</f>
+        <f>if(E21="DIV", I21,"")</f>
         <v/>
       </c>
       <c r="S49" s="58" t="n"/>
       <c r="T49" s="58">
-        <f>if(G22="DIV", N22,"")</f>
+        <f>if(G21="DIV", N21,"")</f>
         <v/>
       </c>
       <c r="U49" s="58">
-        <f>if(H22="DIV", #REF!,"")</f>
+        <f>if(H21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V49" s="58">
-        <f>if(I22="DIV", #REF!,"")</f>
+        <f>if(I21="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W49" s="42" t="n">
@@ -3915,19 +3843,19 @@
         <v>44239</v>
       </c>
       <c r="Y49" s="46" t="n">
-        <v>0.06263318239</v>
+        <v>0.05137472125</v>
       </c>
       <c r="Z49" s="60" t="n">
-        <v>650.0698</v>
+        <v>107.8191</v>
       </c>
       <c r="AA49" s="60" t="n">
-        <v>10887.3198</v>
+        <v>2177.7791</v>
       </c>
       <c r="AB49" s="61" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AC49" s="42">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD49" s="62" t="inlineStr">
@@ -3938,7 +3866,7 @@
     </row>
     <row r="50">
       <c r="A50" s="54" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B50" s="55" t="inlineStr">
         <is>
@@ -3954,10 +3882,10 @@
         <v>50</v>
       </c>
       <c r="E50" s="42" t="n">
-        <v>203.9548</v>
+        <v>204.745</v>
       </c>
       <c r="F50" s="42" t="n">
-        <v>10268.26</v>
+        <v>10308.25</v>
       </c>
       <c r="G50" s="57" t="inlineStr">
         <is>
@@ -3965,10 +3893,10 @@
         </is>
       </c>
       <c r="H50" s="57" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="I50" s="57" t="n">
-        <v>61.27</v>
+        <v>61.25</v>
       </c>
       <c r="J50" s="42">
         <f>Index!$C$2</f>
@@ -3976,41 +3904,41 @@
       </c>
       <c r="K50" s="42" t="n"/>
       <c r="L50" s="42">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((J22*D22)-(E22*D22)+I22), "")</f>
         <v/>
       </c>
       <c r="M50" s="63">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), J22*D22, "")</f>
         <v/>
       </c>
       <c r="N50" s="64">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O50" s="42" t="n"/>
       <c r="P50" s="42">
-        <f>if(C23="DIV", G23,"")</f>
+        <f>if(C22="DIV", G22,"")</f>
         <v/>
       </c>
       <c r="Q50" s="65">
-        <f>if(D23="DIV", H23,"")</f>
+        <f>if(D22="DIV", H22,"")</f>
         <v/>
       </c>
       <c r="R50" s="65">
-        <f>if(E23="DIV", I23,"")</f>
+        <f>if(E22="DIV", I22,"")</f>
         <v/>
       </c>
       <c r="S50" s="58" t="n"/>
       <c r="T50" s="58">
-        <f>if(G23="DIV", N23,"")</f>
+        <f>if(G22="DIV", N22,"")</f>
         <v/>
       </c>
       <c r="U50" s="58">
-        <f>if(H23="DIV", #REF!,"")</f>
+        <f>if(H22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="V50" s="58">
-        <f>if(I23="DIV", #REF!,"")</f>
+        <f>if(I22="DIV", #REF!,"")</f>
         <v/>
       </c>
       <c r="W50" s="42" t="n">
@@ -4020,19 +3948,19 @@
         <v>44239</v>
       </c>
       <c r="Y50" s="46" t="n">
-        <v>0.06664332403000001</v>
+        <v>0.06263318239</v>
       </c>
       <c r="Z50" s="60" t="n">
-        <v>689.02666</v>
+        <v>650.0698</v>
       </c>
       <c r="AA50" s="60" t="n">
-        <v>10886.76666</v>
+        <v>10887.3198</v>
       </c>
       <c r="AB50" s="61" t="n">
         <v>50</v>
       </c>
       <c r="AC50" s="42">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD50" s="62" t="inlineStr">
@@ -4042,20 +3970,109 @@
       </c>
     </row>
     <row r="51">
-      <c r="E51" s="66" t="n"/>
-      <c r="F51" s="66" t="n"/>
-      <c r="G51" s="67" t="n"/>
-      <c r="J51" s="66" t="n"/>
-      <c r="K51" s="66" t="n"/>
-      <c r="L51" s="66" t="n"/>
-      <c r="M51" s="69" t="n"/>
-      <c r="W51" s="66" t="n"/>
-      <c r="X51" s="66" t="n"/>
-      <c r="Y51" s="66" t="n"/>
-      <c r="Z51" s="66" t="n"/>
-      <c r="AA51" s="66" t="n"/>
-      <c r="AB51" s="66" t="n"/>
-      <c r="AC51" s="66" t="n"/>
+      <c r="A51" s="54" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B51" s="55" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C51" s="55" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" s="57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" s="42" t="n">
+        <v>203.9548</v>
+      </c>
+      <c r="F51" s="42" t="n">
+        <v>10268.26</v>
+      </c>
+      <c r="G51" s="57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H51" s="57" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I51" s="57" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="J51" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K51" s="42" t="n"/>
+      <c r="L51" s="42">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((J23*D23)-(E23*D23)+I23), "")</f>
+        <v/>
+      </c>
+      <c r="M51" s="63">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), J23*D23, "")</f>
+        <v/>
+      </c>
+      <c r="N51" s="64">
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <v/>
+      </c>
+      <c r="O51" s="42" t="n"/>
+      <c r="P51" s="42">
+        <f>if(C23="DIV", G23,"")</f>
+        <v/>
+      </c>
+      <c r="Q51" s="65">
+        <f>if(D23="DIV", H23,"")</f>
+        <v/>
+      </c>
+      <c r="R51" s="65">
+        <f>if(E23="DIV", I23,"")</f>
+        <v/>
+      </c>
+      <c r="S51" s="58" t="n"/>
+      <c r="T51" s="58">
+        <f>if(G23="DIV", N23,"")</f>
+        <v/>
+      </c>
+      <c r="U51" s="58">
+        <f>if(H23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="V51" s="58">
+        <f>if(I23="DIV", #REF!,"")</f>
+        <v/>
+      </c>
+      <c r="W51" s="42" t="n">
+        <v>217.931</v>
+      </c>
+      <c r="X51" s="54" t="n">
+        <v>44239</v>
+      </c>
+      <c r="Y51" s="46" t="n">
+        <v>0.06664332403000001</v>
+      </c>
+      <c r="Z51" s="60" t="n">
+        <v>689.02666</v>
+      </c>
+      <c r="AA51" s="60" t="n">
+        <v>10886.76666</v>
+      </c>
+      <c r="AB51" s="61" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="42">
+        <f>if(B23="DIV", F23,"")</f>
+        <v/>
+      </c>
+      <c r="AD51" s="62" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="E52" s="66" t="n"/>
@@ -19648,6 +19665,7 @@
       <c r="J1026" s="66" t="n"/>
       <c r="K1026" s="66" t="n"/>
       <c r="L1026" s="66" t="n"/>
+      <c r="M1026" s="69" t="n"/>
       <c r="W1026" s="66" t="n"/>
       <c r="X1026" s="66" t="n"/>
       <c r="Y1026" s="66" t="n"/>
@@ -19895,6 +19913,21 @@
       <c r="AA1042" s="66" t="n"/>
       <c r="AB1042" s="66" t="n"/>
       <c r="AC1042" s="66" t="n"/>
+    </row>
+    <row r="1043">
+      <c r="E1043" s="66" t="n"/>
+      <c r="F1043" s="66" t="n"/>
+      <c r="G1043" s="67" t="n"/>
+      <c r="J1043" s="66" t="n"/>
+      <c r="K1043" s="66" t="n"/>
+      <c r="L1043" s="66" t="n"/>
+      <c r="W1043" s="66" t="n"/>
+      <c r="X1043" s="66" t="n"/>
+      <c r="Y1043" s="66" t="n"/>
+      <c r="Z1043" s="66" t="n"/>
+      <c r="AA1043" s="66" t="n"/>
+      <c r="AB1043" s="66" t="n"/>
+      <c r="AC1043" s="66" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$92"/>
